--- a/teaching/traditional_assets/database/data/colombia/colombia_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/colombia/colombia_apparel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bvc_fabricato" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,26 +592,23 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.104</v>
-      </c>
       <c r="G2">
-        <v>-0.03850616388687455</v>
+        <v>0.103012912482066</v>
       </c>
       <c r="H2">
-        <v>-0.03850616388687455</v>
+        <v>0.103012912482066</v>
       </c>
       <c r="I2">
-        <v>-0.08049311094996374</v>
+        <v>0.06470588235294117</v>
       </c>
       <c r="J2">
-        <v>-0.08049311094996374</v>
+        <v>0.06470588235294117</v>
       </c>
       <c r="K2">
-        <v>-21.5</v>
+        <v>1.65</v>
       </c>
       <c r="L2">
-        <v>-0.1559100797679478</v>
+        <v>0.0236728837876614</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.125</v>
+        <v>1.08</v>
       </c>
       <c r="V2">
-        <v>0.02992021276595744</v>
+        <v>0.0864</v>
       </c>
       <c r="W2">
-        <v>-0.06304414638948516</v>
+        <v>0.01150627615062761</v>
       </c>
       <c r="X2">
-        <v>0.115748250900038</v>
+        <v>0.1656311733303894</v>
       </c>
       <c r="Y2">
-        <v>-0.1787923972895231</v>
+        <v>-0.1541248971797618</v>
       </c>
       <c r="Z2">
-        <v>0.3019031501699984</v>
+        <v>0.3898864462717458</v>
       </c>
       <c r="AA2">
-        <v>-0.02576101140837903</v>
+        <v>0.0252279465234659</v>
       </c>
       <c r="AB2">
-        <v>0.06785797233008031</v>
+        <v>0.06335406526492501</v>
       </c>
       <c r="AC2">
-        <v>-0.09361898373845934</v>
+        <v>-0.03812611874145911</v>
       </c>
       <c r="AD2">
-        <v>42.22</v>
+        <v>32.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>42.22</v>
+        <v>32.9</v>
       </c>
       <c r="AG2">
-        <v>41.095</v>
+        <v>31.82</v>
       </c>
       <c r="AH2">
-        <v>0.5289401152593335</v>
+        <v>0.724669603524229</v>
       </c>
       <c r="AI2">
-        <v>0.1305827044414202</v>
+        <v>0.2034632034632034</v>
       </c>
       <c r="AJ2">
-        <v>0.5222059851324735</v>
+        <v>0.7179602888086642</v>
       </c>
       <c r="AK2">
-        <v>0.1275469824174801</v>
+        <v>0.1981073340804383</v>
       </c>
       <c r="AL2">
-        <v>13.8</v>
+        <v>4.45</v>
       </c>
       <c r="AM2">
-        <v>13.575</v>
+        <v>4.26</v>
       </c>
       <c r="AN2">
-        <v>-7.013289036544851</v>
+        <v>4.138364779874213</v>
       </c>
       <c r="AO2">
-        <v>-0.8043478260869564</v>
+        <v>1.013483146067416</v>
       </c>
       <c r="AP2">
-        <v>-6.826411960132891</v>
+        <v>4.00251572327044</v>
       </c>
       <c r="AQ2">
-        <v>-0.8176795580110496</v>
+        <v>1.05868544600939</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +709,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coltejer S.A. (BVC:COLTEJER)</t>
+          <t>Fabricato S.A. (BVC:FABRICATO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,26 +717,23 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.104</v>
-      </c>
       <c r="G3">
-        <v>-0.0675609756097561</v>
+        <v>0.103012912482066</v>
       </c>
       <c r="H3">
-        <v>-0.0675609756097561</v>
+        <v>0.103012912482066</v>
       </c>
       <c r="I3">
-        <v>-0.08097560975609756</v>
+        <v>0.06470588235294117</v>
       </c>
       <c r="J3">
-        <v>-0.08097560975609756</v>
+        <v>0.06470588235294117</v>
       </c>
       <c r="K3">
-        <v>-9.1</v>
+        <v>1.65</v>
       </c>
       <c r="L3">
-        <v>-0.2219512195121951</v>
+        <v>0.0236728837876614</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,204 +751,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.095</v>
+        <v>1.08</v>
       </c>
       <c r="V3">
-        <v>0.004042553191489362</v>
+        <v>0.0864</v>
       </c>
       <c r="W3">
-        <v>-0.05284552845528456</v>
+        <v>0.01150627615062761</v>
       </c>
       <c r="X3">
-        <v>0.07699307057162115</v>
+        <v>0.1656311733303894</v>
       </c>
       <c r="Y3">
-        <v>-0.1298385990269057</v>
+        <v>-0.1541248971797618</v>
       </c>
       <c r="Z3">
-        <v>0.1610400832695065</v>
+        <v>0.3898864462717458</v>
       </c>
       <c r="AA3">
-        <v>-0.01304031893792101</v>
+        <v>0.0252279465234659</v>
       </c>
       <c r="AB3">
-        <v>0.06837507863786797</v>
+        <v>0.06335406526492501</v>
       </c>
       <c r="AC3">
-        <v>-0.08141539757578899</v>
+        <v>-0.03812611874145911</v>
       </c>
       <c r="AD3">
-        <v>5.82</v>
+        <v>32.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.82</v>
+        <v>32.9</v>
       </c>
       <c r="AG3">
-        <v>5.725000000000001</v>
+        <v>31.82</v>
       </c>
       <c r="AH3">
-        <v>0.1984993178717599</v>
+        <v>0.724669603524229</v>
       </c>
       <c r="AI3">
-        <v>0.04055183946488295</v>
+        <v>0.2034632034632034</v>
       </c>
       <c r="AJ3">
-        <v>0.1958939264328486</v>
+        <v>0.7179602888086642</v>
       </c>
       <c r="AK3">
-        <v>0.03991633257800245</v>
+        <v>0.1981073340804383</v>
       </c>
       <c r="AL3">
-        <v>9.23</v>
+        <v>4.45</v>
       </c>
       <c r="AM3">
-        <v>9.123000000000001</v>
+        <v>4.26</v>
       </c>
       <c r="AN3">
-        <v>-2.75829383886256</v>
+        <v>4.138364779874213</v>
       </c>
       <c r="AO3">
-        <v>-0.3596966413867822</v>
+        <v>1.013483146067416</v>
       </c>
       <c r="AP3">
-        <v>-2.713270142180095</v>
+        <v>4.00251572327044</v>
       </c>
       <c r="AQ3">
-        <v>-0.3639153787131426</v>
+        <v>1.05868544600939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fabricato S.A. (BVC:FABRICATO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BVC:FABRICATO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.724669603524229</v>
+      </c>
+      <c r="F2">
+        <v>0.97</v>
+      </c>
+      <c r="G2">
+        <v>12.5</v>
+      </c>
+      <c r="H2">
+        <v>8.48131193997509</v>
+      </c>
+      <c r="I2">
+        <v>44.32</v>
+      </c>
+      <c r="J2">
+        <v>51.4393119399751</v>
+      </c>
+      <c r="K2">
+        <v>32.9</v>
+      </c>
+      <c r="L2">
+        <v>44.038</v>
+      </c>
+      <c r="M2">
+        <v>0.063354065264925</v>
+      </c>
+      <c r="N2">
+        <v>0.0538294193400997</v>
+      </c>
+      <c r="O2">
+        <v>0.0244949816534264</v>
+      </c>
+      <c r="P2">
+        <v>0.015368</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.165631173330389</v>
+      </c>
+      <c r="T2">
+        <v>1.29741531133666</v>
+      </c>
+      <c r="U2">
+        <v>2.38180254123328</v>
+      </c>
+      <c r="V2">
+        <v>19.6252369670326</v>
+      </c>
+      <c r="W2">
+        <v>4.531484675141783</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>12.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.065635656450951</v>
+      </c>
+      <c r="AC2">
+        <v>0.03602203184327407</v>
+      </c>
+      <c r="AD2">
+        <v>0.32</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.95</v>
+      </c>
+      <c r="AH2">
+        <v>3.44</v>
+      </c>
+      <c r="AI2">
+        <v>3.44</v>
+      </c>
+      <c r="AJ2">
+        <v>32.9</v>
+      </c>
+      <c r="AK2">
+        <v>32.9</v>
+      </c>
+      <c r="AL2">
+        <v>4.45</v>
+      </c>
+      <c r="AM2">
+        <v>32.9</v>
+      </c>
+      <c r="AN2">
+        <v>1.08</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06533749904306803</v>
+      </c>
+      <c r="C2">
+        <v>44.15842890636942</v>
+      </c>
+      <c r="D2">
+        <v>43.07842890636942</v>
+      </c>
+      <c r="E2">
+        <v>-32.9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.08</v>
+      </c>
+      <c r="H2">
+        <v>12.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.95</v>
+      </c>
+      <c r="K2">
+        <v>3.44</v>
+      </c>
+      <c r="L2">
+        <v>4.51</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4.51</v>
+      </c>
+      <c r="O2">
+        <v>1.4432</v>
+      </c>
+      <c r="P2">
+        <v>3.0668</v>
+      </c>
+      <c r="Q2">
+        <v>6.5068</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06533749904306803</v>
+      </c>
+      <c r="T2">
+        <v>0.8537661093546676</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.32</v>
+      </c>
+      <c r="W2">
+        <v>0.011016</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0651753390461302</v>
+      </c>
+      <c r="C3">
+        <v>43.80331917063347</v>
+      </c>
+      <c r="D3">
+        <v>43.17731917063347</v>
+      </c>
+      <c r="E3">
+        <v>-32.446</v>
+      </c>
+      <c r="F3">
+        <v>0.454</v>
+      </c>
+      <c r="G3">
+        <v>1.08</v>
+      </c>
+      <c r="H3">
+        <v>12.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.95</v>
+      </c>
+      <c r="K3">
+        <v>3.44</v>
+      </c>
+      <c r="L3">
+        <v>4.51</v>
+      </c>
+      <c r="M3">
+        <v>0.0073548</v>
+      </c>
+      <c r="N3">
+        <v>4.5026452</v>
+      </c>
+      <c r="O3">
+        <v>1.440846464</v>
+      </c>
+      <c r="P3">
+        <v>3.061798736</v>
+      </c>
+      <c r="Q3">
+        <v>6.501798736</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06572240307689919</v>
+      </c>
+      <c r="T3">
+        <v>0.8596303614189219</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.32</v>
+      </c>
+      <c r="W3">
+        <v>0.011016</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>613.2049817806059</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fabricato S.A. (BVC:FABRICATO)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Apparel</t>
-        </is>
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06501317904919236</v>
+      </c>
+      <c r="C4">
+        <v>43.44866450187475</v>
+      </c>
+      <c r="D4">
+        <v>43.27666450187476</v>
+      </c>
+      <c r="E4">
+        <v>-31.992</v>
+      </c>
+      <c r="F4">
+        <v>0.908</v>
       </c>
       <c r="G4">
-        <v>-0.0262125902992776</v>
+        <v>1.08</v>
       </c>
       <c r="H4">
-        <v>-0.0262125902992776</v>
+        <v>12.5</v>
       </c>
       <c r="I4">
-        <v>-0.08028895768833849</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.08028895768833849</v>
+        <v>7.95</v>
       </c>
       <c r="K4">
-        <v>-12.4</v>
+        <v>3.44</v>
       </c>
       <c r="L4">
-        <v>-0.1279669762641899</v>
+        <v>4.51</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.0147096</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>4.4952904</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.438492928</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>3.056797472</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>6.496797472000001</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.06611516229509426</v>
+      </c>
+      <c r="T4">
+        <v>0.8656142920967322</v>
       </c>
       <c r="U4">
-        <v>1.03</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>0.07304964539007093</v>
+        <v>0.32</v>
       </c>
       <c r="W4">
-        <v>-0.07324276432368576</v>
-      </c>
-      <c r="X4">
-        <v>0.1545034312284548</v>
+        <v>0.011016</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.2277461955521405</v>
+        <v>306.6024908903029</v>
       </c>
       <c r="Z4">
-        <v>0.4792901164343585</v>
-      </c>
-      <c r="AA4">
-        <v>-0.03848170387883704</v>
-      </c>
-      <c r="AB4">
-        <v>0.06734086602229265</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1058225699011297</v>
-      </c>
-      <c r="AD4">
-        <v>36.4</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>36.4</v>
-      </c>
-      <c r="AG4">
-        <v>35.37</v>
-      </c>
-      <c r="AH4">
-        <v>0.7207920792079208</v>
-      </c>
-      <c r="AI4">
-        <v>0.2024471635150167</v>
-      </c>
-      <c r="AJ4">
-        <v>0.7149787750151607</v>
-      </c>
-      <c r="AK4">
-        <v>0.1978519885886894</v>
-      </c>
-      <c r="AL4">
-        <v>4.57</v>
-      </c>
-      <c r="AM4">
-        <v>4.452</v>
-      </c>
-      <c r="AN4">
-        <v>-9.309462915601022</v>
-      </c>
-      <c r="AO4">
-        <v>-1.702407002188184</v>
-      </c>
-      <c r="AP4">
-        <v>-9.046035805626598</v>
-      </c>
-      <c r="AQ4">
-        <v>-1.747529200359389</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06485101905225456</v>
+      </c>
+      <c r="C5">
+        <v>43.09446804848501</v>
+      </c>
+      <c r="D5">
+        <v>43.37646804848502</v>
+      </c>
+      <c r="E5">
+        <v>-31.538</v>
+      </c>
+      <c r="F5">
+        <v>1.362</v>
+      </c>
+      <c r="G5">
+        <v>1.08</v>
+      </c>
+      <c r="H5">
+        <v>12.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.95</v>
+      </c>
+      <c r="K5">
+        <v>3.44</v>
+      </c>
+      <c r="L5">
+        <v>4.51</v>
+      </c>
+      <c r="M5">
+        <v>0.0220644</v>
+      </c>
+      <c r="N5">
+        <v>4.4879356</v>
+      </c>
+      <c r="O5">
+        <v>1.436139392</v>
+      </c>
+      <c r="P5">
+        <v>3.051796208</v>
+      </c>
+      <c r="Q5">
+        <v>6.491796208</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06651601964149956</v>
+      </c>
+      <c r="T5">
+        <v>0.8717216027885183</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.32</v>
+      </c>
+      <c r="W5">
+        <v>0.011016</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>204.4016605935353</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06468885905531675</v>
+      </c>
+      <c r="C6">
+        <v>42.74073298796616</v>
+      </c>
+      <c r="D6">
+        <v>43.47673298796617</v>
+      </c>
+      <c r="E6">
+        <v>-31.084</v>
+      </c>
+      <c r="F6">
+        <v>1.816</v>
+      </c>
+      <c r="G6">
+        <v>1.08</v>
+      </c>
+      <c r="H6">
+        <v>12.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.95</v>
+      </c>
+      <c r="K6">
+        <v>3.44</v>
+      </c>
+      <c r="L6">
+        <v>4.51</v>
+      </c>
+      <c r="M6">
+        <v>0.0294192</v>
+      </c>
+      <c r="N6">
+        <v>4.480580799999999</v>
+      </c>
+      <c r="O6">
+        <v>1.433785856</v>
+      </c>
+      <c r="P6">
+        <v>3.046794943999999</v>
+      </c>
+      <c r="Q6">
+        <v>6.486794944</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06692522818262162</v>
+      </c>
+      <c r="T6">
+        <v>0.8779561491197164</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.32</v>
+      </c>
+      <c r="W6">
+        <v>0.011016</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>153.3012454451514</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06452669905837895</v>
+      </c>
+      <c r="C7">
+        <v>42.3874625272674</v>
+      </c>
+      <c r="D7">
+        <v>43.5774625272674</v>
+      </c>
+      <c r="E7">
+        <v>-30.63</v>
+      </c>
+      <c r="F7">
+        <v>2.27</v>
+      </c>
+      <c r="G7">
+        <v>1.08</v>
+      </c>
+      <c r="H7">
+        <v>12.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.95</v>
+      </c>
+      <c r="K7">
+        <v>3.44</v>
+      </c>
+      <c r="L7">
+        <v>4.51</v>
+      </c>
+      <c r="M7">
+        <v>0.036774</v>
+      </c>
+      <c r="N7">
+        <v>4.473225999999999</v>
+      </c>
+      <c r="O7">
+        <v>1.43143232</v>
+      </c>
+      <c r="P7">
+        <v>3.04179368</v>
+      </c>
+      <c r="Q7">
+        <v>6.48179368</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06734305164039889</v>
+      </c>
+      <c r="T7">
+        <v>0.8843219490578873</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.32</v>
+      </c>
+      <c r="W7">
+        <v>0.011016</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>122.6409963561211</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06436453906144111</v>
+      </c>
+      <c r="C8">
+        <v>42.03465990312717</v>
+      </c>
+      <c r="D8">
+        <v>43.67865990312717</v>
+      </c>
+      <c r="E8">
+        <v>-30.176</v>
+      </c>
+      <c r="F8">
+        <v>2.724</v>
+      </c>
+      <c r="G8">
+        <v>1.08</v>
+      </c>
+      <c r="H8">
+        <v>12.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.95</v>
+      </c>
+      <c r="K8">
+        <v>3.44</v>
+      </c>
+      <c r="L8">
+        <v>4.51</v>
+      </c>
+      <c r="M8">
+        <v>0.0441288</v>
+      </c>
+      <c r="N8">
+        <v>4.4658712</v>
+      </c>
+      <c r="O8">
+        <v>1.429078784</v>
+      </c>
+      <c r="P8">
+        <v>3.036792416</v>
+      </c>
+      <c r="Q8">
+        <v>6.476792416</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06776976495897991</v>
+      </c>
+      <c r="T8">
+        <v>0.890823191547934</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.32</v>
+      </c>
+      <c r="W8">
+        <v>0.011016</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>102.2008302967676</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0642023790645033</v>
+      </c>
+      <c r="C9">
+        <v>41.68232838241981</v>
+      </c>
+      <c r="D9">
+        <v>43.78032838241981</v>
+      </c>
+      <c r="E9">
+        <v>-29.722</v>
+      </c>
+      <c r="F9">
+        <v>3.178</v>
+      </c>
+      <c r="G9">
+        <v>1.08</v>
+      </c>
+      <c r="H9">
+        <v>12.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.95</v>
+      </c>
+      <c r="K9">
+        <v>3.44</v>
+      </c>
+      <c r="L9">
+        <v>4.51</v>
+      </c>
+      <c r="M9">
+        <v>0.0514836</v>
+      </c>
+      <c r="N9">
+        <v>4.4585164</v>
+      </c>
+      <c r="O9">
+        <v>1.426725248</v>
+      </c>
+      <c r="P9">
+        <v>3.031791152</v>
+      </c>
+      <c r="Q9">
+        <v>6.471791152</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06820565490806807</v>
+      </c>
+      <c r="T9">
+        <v>0.8974642457044334</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.32</v>
+      </c>
+      <c r="W9">
+        <v>0.011016</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>87.60071168294368</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06404021906756548</v>
+      </c>
+      <c r="C10">
+        <v>41.33047126250718</v>
+      </c>
+      <c r="D10">
+        <v>43.88247126250718</v>
+      </c>
+      <c r="E10">
+        <v>-29.268</v>
+      </c>
+      <c r="F10">
+        <v>3.632</v>
+      </c>
+      <c r="G10">
+        <v>1.08</v>
+      </c>
+      <c r="H10">
+        <v>12.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.95</v>
+      </c>
+      <c r="K10">
+        <v>3.44</v>
+      </c>
+      <c r="L10">
+        <v>4.51</v>
+      </c>
+      <c r="M10">
+        <v>0.0588384</v>
+      </c>
+      <c r="N10">
+        <v>4.4511616</v>
+      </c>
+      <c r="O10">
+        <v>1.424371712</v>
+      </c>
+      <c r="P10">
+        <v>3.026789888</v>
+      </c>
+      <c r="Q10">
+        <v>6.466789888</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06865102072561464</v>
+      </c>
+      <c r="T10">
+        <v>0.9042496706034653</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.32</v>
+      </c>
+      <c r="W10">
+        <v>0.011016</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>76.65062272257573</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06387805907062766</v>
+      </c>
+      <c r="C11">
+        <v>40.97909187159509</v>
+      </c>
+      <c r="D11">
+        <v>43.98509187159509</v>
+      </c>
+      <c r="E11">
+        <v>-28.814</v>
+      </c>
+      <c r="F11">
+        <v>4.085999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.08</v>
+      </c>
+      <c r="H11">
+        <v>12.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.95</v>
+      </c>
+      <c r="K11">
+        <v>3.44</v>
+      </c>
+      <c r="L11">
+        <v>4.51</v>
+      </c>
+      <c r="M11">
+        <v>0.06619319999999999</v>
+      </c>
+      <c r="N11">
+        <v>4.4438068</v>
+      </c>
+      <c r="O11">
+        <v>1.422018176</v>
+      </c>
+      <c r="P11">
+        <v>3.021788624</v>
+      </c>
+      <c r="Q11">
+        <v>6.461788624</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06910617480288754</v>
+      </c>
+      <c r="T11">
+        <v>0.9111842257200584</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.32</v>
+      </c>
+      <c r="W11">
+        <v>0.011016</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>68.13388686451177</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06371589907368985</v>
+      </c>
+      <c r="C12">
+        <v>40.62819356909477</v>
+      </c>
+      <c r="D12">
+        <v>44.08819356909477</v>
+      </c>
+      <c r="E12">
+        <v>-28.36</v>
+      </c>
+      <c r="F12">
+        <v>4.54</v>
+      </c>
+      <c r="G12">
+        <v>1.08</v>
+      </c>
+      <c r="H12">
+        <v>12.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.95</v>
+      </c>
+      <c r="K12">
+        <v>3.44</v>
+      </c>
+      <c r="L12">
+        <v>4.51</v>
+      </c>
+      <c r="M12">
+        <v>0.073548</v>
+      </c>
+      <c r="N12">
+        <v>4.436452</v>
+      </c>
+      <c r="O12">
+        <v>1.41966464</v>
+      </c>
+      <c r="P12">
+        <v>3.01678736</v>
+      </c>
+      <c r="Q12">
+        <v>6.45678736</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06957144341521095</v>
+      </c>
+      <c r="T12">
+        <v>0.9182728820614647</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.32</v>
+      </c>
+      <c r="W12">
+        <v>0.011016</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>61.32049817806058</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06355373907675203</v>
+      </c>
+      <c r="C13">
+        <v>40.27777974598955</v>
+      </c>
+      <c r="D13">
+        <v>44.19177974598955</v>
+      </c>
+      <c r="E13">
+        <v>-27.906</v>
+      </c>
+      <c r="F13">
+        <v>4.994</v>
+      </c>
+      <c r="G13">
+        <v>1.08</v>
+      </c>
+      <c r="H13">
+        <v>12.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.95</v>
+      </c>
+      <c r="K13">
+        <v>3.44</v>
+      </c>
+      <c r="L13">
+        <v>4.51</v>
+      </c>
+      <c r="M13">
+        <v>0.0809028</v>
+      </c>
+      <c r="N13">
+        <v>4.4290972</v>
+      </c>
+      <c r="O13">
+        <v>1.417311104</v>
+      </c>
+      <c r="P13">
+        <v>3.011786096</v>
+      </c>
+      <c r="Q13">
+        <v>6.451786096</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07004716750196857</v>
+      </c>
+      <c r="T13">
+        <v>0.9255208340509924</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.32</v>
+      </c>
+      <c r="W13">
+        <v>0.011016</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>55.74590743460054</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06339157907981421</v>
+      </c>
+      <c r="C14">
+        <v>39.92785382520652</v>
+      </c>
+      <c r="D14">
+        <v>44.29585382520652</v>
+      </c>
+      <c r="E14">
+        <v>-27.452</v>
+      </c>
+      <c r="F14">
+        <v>5.448</v>
+      </c>
+      <c r="G14">
+        <v>1.08</v>
+      </c>
+      <c r="H14">
+        <v>12.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.95</v>
+      </c>
+      <c r="K14">
+        <v>3.44</v>
+      </c>
+      <c r="L14">
+        <v>4.51</v>
+      </c>
+      <c r="M14">
+        <v>0.08825759999999999</v>
+      </c>
+      <c r="N14">
+        <v>4.421742399999999</v>
+      </c>
+      <c r="O14">
+        <v>1.414957568</v>
+      </c>
+      <c r="P14">
+        <v>3.006784831999999</v>
+      </c>
+      <c r="Q14">
+        <v>6.446784832</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07053370349978888</v>
+      </c>
+      <c r="T14">
+        <v>0.9329335122221004</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.32</v>
+      </c>
+      <c r="W14">
+        <v>0.011016</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>51.10041514838382</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0632294190828764</v>
+      </c>
+      <c r="C15">
+        <v>39.57841926199363</v>
+      </c>
+      <c r="D15">
+        <v>44.40041926199363</v>
+      </c>
+      <c r="E15">
+        <v>-26.998</v>
+      </c>
+      <c r="F15">
+        <v>5.902</v>
+      </c>
+      <c r="G15">
+        <v>1.08</v>
+      </c>
+      <c r="H15">
+        <v>12.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.95</v>
+      </c>
+      <c r="K15">
+        <v>3.44</v>
+      </c>
+      <c r="L15">
+        <v>4.51</v>
+      </c>
+      <c r="M15">
+        <v>0.0956124</v>
+      </c>
+      <c r="N15">
+        <v>4.4143876</v>
+      </c>
+      <c r="O15">
+        <v>1.412604032</v>
+      </c>
+      <c r="P15">
+        <v>3.001783568</v>
+      </c>
+      <c r="Q15">
+        <v>6.441783568</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07103142423319125</v>
+      </c>
+      <c r="T15">
+        <v>0.9405165967879464</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.32</v>
+      </c>
+      <c r="W15">
+        <v>0.011016</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>47.16961398312353</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06306725908593856</v>
+      </c>
+      <c r="C16">
+        <v>39.22947954430208</v>
+      </c>
+      <c r="D16">
+        <v>44.50547954430208</v>
+      </c>
+      <c r="E16">
+        <v>-26.544</v>
+      </c>
+      <c r="F16">
+        <v>6.356000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.08</v>
+      </c>
+      <c r="H16">
+        <v>12.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.95</v>
+      </c>
+      <c r="K16">
+        <v>3.44</v>
+      </c>
+      <c r="L16">
+        <v>4.51</v>
+      </c>
+      <c r="M16">
+        <v>0.1029672</v>
+      </c>
+      <c r="N16">
+        <v>4.4070328</v>
+      </c>
+      <c r="O16">
+        <v>1.410250496</v>
+      </c>
+      <c r="P16">
+        <v>2.996782304</v>
+      </c>
+      <c r="Q16">
+        <v>6.436782304</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07154071986737043</v>
+      </c>
+      <c r="T16">
+        <v>0.9482760321576493</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.32</v>
+      </c>
+      <c r="W16">
+        <v>0.011016</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>43.80035584147184</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06290509908900077</v>
+      </c>
+      <c r="C17">
+        <v>38.8810381931741</v>
+      </c>
+      <c r="D17">
+        <v>44.6110381931741</v>
+      </c>
+      <c r="E17">
+        <v>-26.09</v>
+      </c>
+      <c r="F17">
+        <v>6.81</v>
+      </c>
+      <c r="G17">
+        <v>1.08</v>
+      </c>
+      <c r="H17">
+        <v>12.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.95</v>
+      </c>
+      <c r="K17">
+        <v>3.44</v>
+      </c>
+      <c r="L17">
+        <v>4.51</v>
+      </c>
+      <c r="M17">
+        <v>0.110322</v>
+      </c>
+      <c r="N17">
+        <v>4.399678</v>
+      </c>
+      <c r="O17">
+        <v>1.40789696</v>
+      </c>
+      <c r="P17">
+        <v>2.99178104</v>
+      </c>
+      <c r="Q17">
+        <v>6.431781040000001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0720619989282362</v>
+      </c>
+      <c r="T17">
+        <v>0.9562180424772277</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.32</v>
+      </c>
+      <c r="W17">
+        <v>0.011016</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>40.88033211870706</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06274293909206294</v>
+      </c>
+      <c r="C18">
+        <v>38.5330987631364</v>
+      </c>
+      <c r="D18">
+        <v>44.71709876313641</v>
+      </c>
+      <c r="E18">
+        <v>-25.636</v>
+      </c>
+      <c r="F18">
+        <v>7.264</v>
+      </c>
+      <c r="G18">
+        <v>1.08</v>
+      </c>
+      <c r="H18">
+        <v>12.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.95</v>
+      </c>
+      <c r="K18">
+        <v>3.44</v>
+      </c>
+      <c r="L18">
+        <v>4.51</v>
+      </c>
+      <c r="M18">
+        <v>0.1176768</v>
+      </c>
+      <c r="N18">
+        <v>4.3923232</v>
+      </c>
+      <c r="O18">
+        <v>1.405543424</v>
+      </c>
+      <c r="P18">
+        <v>2.986779776</v>
+      </c>
+      <c r="Q18">
+        <v>6.426779776</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07259568939531302</v>
+      </c>
+      <c r="T18">
+        <v>0.9643491482806055</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.32</v>
+      </c>
+      <c r="W18">
+        <v>0.011016</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>38.32531136128787</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06258077909512512</v>
+      </c>
+      <c r="C19">
+        <v>38.18566484259905</v>
+      </c>
+      <c r="D19">
+        <v>44.82366484259905</v>
+      </c>
+      <c r="E19">
+        <v>-25.182</v>
+      </c>
+      <c r="F19">
+        <v>7.718</v>
+      </c>
+      <c r="G19">
+        <v>1.08</v>
+      </c>
+      <c r="H19">
+        <v>12.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.95</v>
+      </c>
+      <c r="K19">
+        <v>3.44</v>
+      </c>
+      <c r="L19">
+        <v>4.51</v>
+      </c>
+      <c r="M19">
+        <v>0.1250316</v>
+      </c>
+      <c r="N19">
+        <v>4.3849684</v>
+      </c>
+      <c r="O19">
+        <v>1.403189888</v>
+      </c>
+      <c r="P19">
+        <v>2.981778512</v>
+      </c>
+      <c r="Q19">
+        <v>6.421778512</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07314223987364472</v>
+      </c>
+      <c r="T19">
+        <v>0.9726761843443056</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.32</v>
+      </c>
+      <c r="W19">
+        <v>0.011016</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>36.07088128121211</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0624186190981873</v>
+      </c>
+      <c r="C20">
+        <v>37.83874005426026</v>
+      </c>
+      <c r="D20">
+        <v>44.93074005426026</v>
+      </c>
+      <c r="E20">
+        <v>-24.728</v>
+      </c>
+      <c r="F20">
+        <v>8.171999999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.08</v>
+      </c>
+      <c r="H20">
+        <v>12.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.95</v>
+      </c>
+      <c r="K20">
+        <v>3.44</v>
+      </c>
+      <c r="L20">
+        <v>4.51</v>
+      </c>
+      <c r="M20">
+        <v>0.1323864</v>
+      </c>
+      <c r="N20">
+        <v>4.3776136</v>
+      </c>
+      <c r="O20">
+        <v>1.400836352</v>
+      </c>
+      <c r="P20">
+        <v>2.976777248</v>
+      </c>
+      <c r="Q20">
+        <v>6.416777248000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07370212085144792</v>
+      </c>
+      <c r="T20">
+        <v>0.9812063188485837</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.32</v>
+      </c>
+      <c r="W20">
+        <v>0.011016</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>34.06694343225588</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06225645910124949</v>
+      </c>
+      <c r="C21">
+        <v>37.49232805551686</v>
+      </c>
+      <c r="D21">
+        <v>45.03832805551686</v>
+      </c>
+      <c r="E21">
+        <v>-24.274</v>
+      </c>
+      <c r="F21">
+        <v>8.625999999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.08</v>
+      </c>
+      <c r="H21">
+        <v>12.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.95</v>
+      </c>
+      <c r="K21">
+        <v>3.44</v>
+      </c>
+      <c r="L21">
+        <v>4.51</v>
+      </c>
+      <c r="M21">
+        <v>0.1397412</v>
+      </c>
+      <c r="N21">
+        <v>4.3702588</v>
+      </c>
+      <c r="O21">
+        <v>1.398482816</v>
+      </c>
+      <c r="P21">
+        <v>2.971775984</v>
+      </c>
+      <c r="Q21">
+        <v>6.411775984</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07427582605092529</v>
+      </c>
+      <c r="T21">
+        <v>0.9899470739579059</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.32</v>
+      </c>
+      <c r="W21">
+        <v>0.011016</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>32.27394640950558</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06209429910431168</v>
+      </c>
+      <c r="C22">
+        <v>37.14643253888076</v>
+      </c>
+      <c r="D22">
+        <v>45.14643253888076</v>
+      </c>
+      <c r="E22">
+        <v>-23.82</v>
+      </c>
+      <c r="F22">
+        <v>9.08</v>
+      </c>
+      <c r="G22">
+        <v>1.08</v>
+      </c>
+      <c r="H22">
+        <v>12.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.95</v>
+      </c>
+      <c r="K22">
+        <v>3.44</v>
+      </c>
+      <c r="L22">
+        <v>4.51</v>
+      </c>
+      <c r="M22">
+        <v>0.147096</v>
+      </c>
+      <c r="N22">
+        <v>4.362903999999999</v>
+      </c>
+      <c r="O22">
+        <v>1.39612928</v>
+      </c>
+      <c r="P22">
+        <v>2.96677472</v>
+      </c>
+      <c r="Q22">
+        <v>6.40677472</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07486387388038959</v>
+      </c>
+      <c r="T22">
+        <v>0.998906347944961</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.32</v>
+      </c>
+      <c r="W22">
+        <v>0.011016</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>30.66024908903029</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06193213910737386</v>
+      </c>
+      <c r="C23">
+        <v>36.80105723240142</v>
+      </c>
+      <c r="D23">
+        <v>45.25505723240142</v>
+      </c>
+      <c r="E23">
+        <v>-23.366</v>
+      </c>
+      <c r="F23">
+        <v>9.533999999999999</v>
+      </c>
+      <c r="G23">
+        <v>1.08</v>
+      </c>
+      <c r="H23">
+        <v>12.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.95</v>
+      </c>
+      <c r="K23">
+        <v>3.44</v>
+      </c>
+      <c r="L23">
+        <v>4.51</v>
+      </c>
+      <c r="M23">
+        <v>0.1544508</v>
+      </c>
+      <c r="N23">
+        <v>4.3555492</v>
+      </c>
+      <c r="O23">
+        <v>1.393775744</v>
+      </c>
+      <c r="P23">
+        <v>2.961773456</v>
+      </c>
+      <c r="Q23">
+        <v>6.401773456</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07546680899667577</v>
+      </c>
+      <c r="T23">
+        <v>1.00809243899498</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.32</v>
+      </c>
+      <c r="W23">
+        <v>0.011016</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>29.2002372276479</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06176997911043604</v>
+      </c>
+      <c r="C24">
+        <v>36.4562059000943</v>
+      </c>
+      <c r="D24">
+        <v>45.3642059000943</v>
+      </c>
+      <c r="E24">
+        <v>-22.912</v>
+      </c>
+      <c r="F24">
+        <v>9.988</v>
+      </c>
+      <c r="G24">
+        <v>1.08</v>
+      </c>
+      <c r="H24">
+        <v>12.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.95</v>
+      </c>
+      <c r="K24">
+        <v>3.44</v>
+      </c>
+      <c r="L24">
+        <v>4.51</v>
+      </c>
+      <c r="M24">
+        <v>0.1618056</v>
+      </c>
+      <c r="N24">
+        <v>4.3481944</v>
+      </c>
+      <c r="O24">
+        <v>1.391422208</v>
+      </c>
+      <c r="P24">
+        <v>2.956772192</v>
+      </c>
+      <c r="Q24">
+        <v>6.396772192</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07608520398773851</v>
+      </c>
+      <c r="T24">
+        <v>1.017514070841153</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.32</v>
+      </c>
+      <c r="W24">
+        <v>0.011016</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>27.87295371730027</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06160781911349822</v>
+      </c>
+      <c r="C25">
+        <v>36.11188234237576</v>
+      </c>
+      <c r="D25">
+        <v>45.47388234237577</v>
+      </c>
+      <c r="E25">
+        <v>-22.458</v>
+      </c>
+      <c r="F25">
+        <v>10.442</v>
+      </c>
+      <c r="G25">
+        <v>1.08</v>
+      </c>
+      <c r="H25">
+        <v>12.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.95</v>
+      </c>
+      <c r="K25">
+        <v>3.44</v>
+      </c>
+      <c r="L25">
+        <v>4.51</v>
+      </c>
+      <c r="M25">
+        <v>0.1691604</v>
+      </c>
+      <c r="N25">
+        <v>4.3408396</v>
+      </c>
+      <c r="O25">
+        <v>1.389068672</v>
+      </c>
+      <c r="P25">
+        <v>2.951770928</v>
+      </c>
+      <c r="Q25">
+        <v>6.391770928</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07671966118636132</v>
+      </c>
+      <c r="T25">
+        <v>1.027180420397616</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.32</v>
+      </c>
+      <c r="W25">
+        <v>0.011016</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>26.66108616437417</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0614456591165604</v>
+      </c>
+      <c r="C26">
+        <v>35.76809039650406</v>
+      </c>
+      <c r="D26">
+        <v>45.58409039650407</v>
+      </c>
+      <c r="E26">
+        <v>-22.004</v>
+      </c>
+      <c r="F26">
+        <v>10.896</v>
+      </c>
+      <c r="G26">
+        <v>1.08</v>
+      </c>
+      <c r="H26">
+        <v>12.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.95</v>
+      </c>
+      <c r="K26">
+        <v>3.44</v>
+      </c>
+      <c r="L26">
+        <v>4.51</v>
+      </c>
+      <c r="M26">
+        <v>0.1765152</v>
+      </c>
+      <c r="N26">
+        <v>4.3334848</v>
+      </c>
+      <c r="O26">
+        <v>1.386715136</v>
+      </c>
+      <c r="P26">
+        <v>2.946769664</v>
+      </c>
+      <c r="Q26">
+        <v>6.386769664</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07737081462705316</v>
+      </c>
+      <c r="T26">
+        <v>1.037101147573986</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.32</v>
+      </c>
+      <c r="W26">
+        <v>0.011016</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>25.55020757419191</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06128349911962259</v>
+      </c>
+      <c r="C27">
+        <v>35.42483393702693</v>
+      </c>
+      <c r="D27">
+        <v>45.69483393702694</v>
+      </c>
+      <c r="E27">
+        <v>-21.55</v>
+      </c>
+      <c r="F27">
+        <v>11.35</v>
+      </c>
+      <c r="G27">
+        <v>1.08</v>
+      </c>
+      <c r="H27">
+        <v>12.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.95</v>
+      </c>
+      <c r="K27">
+        <v>3.44</v>
+      </c>
+      <c r="L27">
+        <v>4.51</v>
+      </c>
+      <c r="M27">
+        <v>0.18387</v>
+      </c>
+      <c r="N27">
+        <v>4.32613</v>
+      </c>
+      <c r="O27">
+        <v>1.3843616</v>
+      </c>
+      <c r="P27">
+        <v>2.9417684</v>
+      </c>
+      <c r="Q27">
+        <v>6.3817684</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07803933215949678</v>
+      </c>
+      <c r="T27">
+        <v>1.047286427475059</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.32</v>
+      </c>
+      <c r="W27">
+        <v>0.011016</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>24.52819927122424</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06112133912268475</v>
+      </c>
+      <c r="C28">
+        <v>35.08211687623567</v>
+      </c>
+      <c r="D28">
+        <v>45.80611687623568</v>
+      </c>
+      <c r="E28">
+        <v>-21.096</v>
+      </c>
+      <c r="F28">
+        <v>11.804</v>
+      </c>
+      <c r="G28">
+        <v>1.08</v>
+      </c>
+      <c r="H28">
+        <v>12.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.95</v>
+      </c>
+      <c r="K28">
+        <v>3.44</v>
+      </c>
+      <c r="L28">
+        <v>4.51</v>
+      </c>
+      <c r="M28">
+        <v>0.1912248</v>
+      </c>
+      <c r="N28">
+        <v>4.3187752</v>
+      </c>
+      <c r="O28">
+        <v>1.382008064</v>
+      </c>
+      <c r="P28">
+        <v>2.936767136</v>
+      </c>
+      <c r="Q28">
+        <v>6.376767136000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07872591773335778</v>
+      </c>
+      <c r="T28">
+        <v>1.057746985211296</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.32</v>
+      </c>
+      <c r="W28">
+        <v>0.011016</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>23.58480699156177</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06095917912574696</v>
+      </c>
+      <c r="C29">
+        <v>34.73994316462573</v>
+      </c>
+      <c r="D29">
+        <v>45.91794316462573</v>
+      </c>
+      <c r="E29">
+        <v>-20.642</v>
+      </c>
+      <c r="F29">
+        <v>12.258</v>
+      </c>
+      <c r="G29">
+        <v>1.08</v>
+      </c>
+      <c r="H29">
+        <v>12.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.95</v>
+      </c>
+      <c r="K29">
+        <v>3.44</v>
+      </c>
+      <c r="L29">
+        <v>4.51</v>
+      </c>
+      <c r="M29">
+        <v>0.1985796</v>
+      </c>
+      <c r="N29">
+        <v>4.311420399999999</v>
+      </c>
+      <c r="O29">
+        <v>1.379654528</v>
+      </c>
+      <c r="P29">
+        <v>2.931765872</v>
+      </c>
+      <c r="Q29">
+        <v>6.371765872</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07943131387088624</v>
+      </c>
+      <c r="T29">
+        <v>1.068494133570444</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.32</v>
+      </c>
+      <c r="W29">
+        <v>0.011016</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>22.71129562150392</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06079701912880913</v>
+      </c>
+      <c r="C30">
+        <v>34.39831679136439</v>
+      </c>
+      <c r="D30">
+        <v>46.0303167913644</v>
+      </c>
+      <c r="E30">
+        <v>-20.188</v>
+      </c>
+      <c r="F30">
+        <v>12.712</v>
+      </c>
+      <c r="G30">
+        <v>1.08</v>
+      </c>
+      <c r="H30">
+        <v>12.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.95</v>
+      </c>
+      <c r="K30">
+        <v>3.44</v>
+      </c>
+      <c r="L30">
+        <v>4.51</v>
+      </c>
+      <c r="M30">
+        <v>0.2059344</v>
+      </c>
+      <c r="N30">
+        <v>4.304065599999999</v>
+      </c>
+      <c r="O30">
+        <v>1.377300992</v>
+      </c>
+      <c r="P30">
+        <v>2.926764608</v>
+      </c>
+      <c r="Q30">
+        <v>6.366764608</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08015630434556824</v>
+      </c>
+      <c r="T30">
+        <v>1.079539813828458</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.32</v>
+      </c>
+      <c r="W30">
+        <v>0.011016</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>21.90017792073592</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0606348591318713</v>
+      </c>
+      <c r="C31">
+        <v>34.05724178476498</v>
+      </c>
+      <c r="D31">
+        <v>46.14324178476498</v>
+      </c>
+      <c r="E31">
+        <v>-19.734</v>
+      </c>
+      <c r="F31">
+        <v>13.166</v>
+      </c>
+      <c r="G31">
+        <v>1.08</v>
+      </c>
+      <c r="H31">
+        <v>12.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.95</v>
+      </c>
+      <c r="K31">
+        <v>3.44</v>
+      </c>
+      <c r="L31">
+        <v>4.51</v>
+      </c>
+      <c r="M31">
+        <v>0.2132892</v>
+      </c>
+      <c r="N31">
+        <v>4.2967108</v>
+      </c>
+      <c r="O31">
+        <v>1.374947456</v>
+      </c>
+      <c r="P31">
+        <v>2.921763343999999</v>
+      </c>
+      <c r="Q31">
+        <v>6.361763344</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08090171708714268</v>
+      </c>
+      <c r="T31">
+        <v>1.090896640009231</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.32</v>
+      </c>
+      <c r="W31">
+        <v>0.011016</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>21.14499937174503</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06047269913493348</v>
+      </c>
+      <c r="C32">
+        <v>33.71672221276823</v>
+      </c>
+      <c r="D32">
+        <v>46.25672221276822</v>
+      </c>
+      <c r="E32">
+        <v>-19.28</v>
+      </c>
+      <c r="F32">
+        <v>13.62</v>
+      </c>
+      <c r="G32">
+        <v>1.08</v>
+      </c>
+      <c r="H32">
+        <v>12.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.95</v>
+      </c>
+      <c r="K32">
+        <v>3.44</v>
+      </c>
+      <c r="L32">
+        <v>4.51</v>
+      </c>
+      <c r="M32">
+        <v>0.220644</v>
+      </c>
+      <c r="N32">
+        <v>4.289356</v>
+      </c>
+      <c r="O32">
+        <v>1.37259392</v>
+      </c>
+      <c r="P32">
+        <v>2.91676208</v>
+      </c>
+      <c r="Q32">
+        <v>6.35676208</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08166842733561927</v>
+      </c>
+      <c r="T32">
+        <v>1.102577946938028</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.32</v>
+      </c>
+      <c r="W32">
+        <v>0.011016</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>20.44016605935353</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06031053913799568</v>
+      </c>
+      <c r="C33">
+        <v>33.37676218343081</v>
+      </c>
+      <c r="D33">
+        <v>46.37076218343081</v>
+      </c>
+      <c r="E33">
+        <v>-18.826</v>
+      </c>
+      <c r="F33">
+        <v>14.074</v>
+      </c>
+      <c r="G33">
+        <v>1.08</v>
+      </c>
+      <c r="H33">
+        <v>12.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.95</v>
+      </c>
+      <c r="K33">
+        <v>3.44</v>
+      </c>
+      <c r="L33">
+        <v>4.51</v>
+      </c>
+      <c r="M33">
+        <v>0.2279988</v>
+      </c>
+      <c r="N33">
+        <v>4.2820012</v>
+      </c>
+      <c r="O33">
+        <v>1.370240384</v>
+      </c>
+      <c r="P33">
+        <v>2.911760816</v>
+      </c>
+      <c r="Q33">
+        <v>6.351760816000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08245736106955896</v>
+      </c>
+      <c r="T33">
+        <v>1.114597842473456</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.32</v>
+      </c>
+      <c r="W33">
+        <v>0.011016</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>19.78080586389051</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06014837914105786</v>
+      </c>
+      <c r="C34">
+        <v>33.03736584542114</v>
+      </c>
+      <c r="D34">
+        <v>46.48536584542114</v>
+      </c>
+      <c r="E34">
+        <v>-18.372</v>
+      </c>
+      <c r="F34">
+        <v>14.528</v>
+      </c>
+      <c r="G34">
+        <v>1.08</v>
+      </c>
+      <c r="H34">
+        <v>12.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.95</v>
+      </c>
+      <c r="K34">
+        <v>3.44</v>
+      </c>
+      <c r="L34">
+        <v>4.51</v>
+      </c>
+      <c r="M34">
+        <v>0.2353536</v>
+      </c>
+      <c r="N34">
+        <v>4.2746464</v>
+      </c>
+      <c r="O34">
+        <v>1.367886848</v>
+      </c>
+      <c r="P34">
+        <v>2.906759552</v>
+      </c>
+      <c r="Q34">
+        <v>6.346759552</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0832694987368498</v>
+      </c>
+      <c r="T34">
+        <v>1.126971264348161</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.32</v>
+      </c>
+      <c r="W34">
+        <v>0.011016</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>19.16265568064393</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05998621914412003</v>
+      </c>
+      <c r="C35">
+        <v>32.6985373885223</v>
+      </c>
+      <c r="D35">
+        <v>46.6005373885223</v>
+      </c>
+      <c r="E35">
+        <v>-17.918</v>
+      </c>
+      <c r="F35">
+        <v>14.982</v>
+      </c>
+      <c r="G35">
+        <v>1.08</v>
+      </c>
+      <c r="H35">
+        <v>12.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.95</v>
+      </c>
+      <c r="K35">
+        <v>3.44</v>
+      </c>
+      <c r="L35">
+        <v>4.51</v>
+      </c>
+      <c r="M35">
+        <v>0.2427084</v>
+      </c>
+      <c r="N35">
+        <v>4.2672916</v>
+      </c>
+      <c r="O35">
+        <v>1.365533312</v>
+      </c>
+      <c r="P35">
+        <v>2.901758288</v>
+      </c>
+      <c r="Q35">
+        <v>6.341758288</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08410587931958215</v>
+      </c>
+      <c r="T35">
+        <v>1.139714042099723</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.32</v>
+      </c>
+      <c r="W35">
+        <v>0.011016</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>18.58196914486685</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05982405914718222</v>
+      </c>
+      <c r="C36">
+        <v>32.36028104414268</v>
+      </c>
+      <c r="D36">
+        <v>46.71628104414268</v>
+      </c>
+      <c r="E36">
+        <v>-17.464</v>
+      </c>
+      <c r="F36">
+        <v>15.436</v>
+      </c>
+      <c r="G36">
+        <v>1.08</v>
+      </c>
+      <c r="H36">
+        <v>12.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.95</v>
+      </c>
+      <c r="K36">
+        <v>3.44</v>
+      </c>
+      <c r="L36">
+        <v>4.51</v>
+      </c>
+      <c r="M36">
+        <v>0.2500632</v>
+      </c>
+      <c r="N36">
+        <v>4.2599368</v>
+      </c>
+      <c r="O36">
+        <v>1.363179776</v>
+      </c>
+      <c r="P36">
+        <v>2.896757024</v>
+      </c>
+      <c r="Q36">
+        <v>6.336757024000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08496760476845792</v>
+      </c>
+      <c r="T36">
+        <v>1.152842964631636</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.32</v>
+      </c>
+      <c r="W36">
+        <v>0.011016</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>18.03544064060605</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.0596618991502444</v>
+      </c>
+      <c r="C37">
+        <v>32.02260108583432</v>
+      </c>
+      <c r="D37">
+        <v>46.83260108583432</v>
+      </c>
+      <c r="E37">
+        <v>-17.01</v>
+      </c>
+      <c r="F37">
+        <v>15.89</v>
+      </c>
+      <c r="G37">
+        <v>1.08</v>
+      </c>
+      <c r="H37">
+        <v>12.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.95</v>
+      </c>
+      <c r="K37">
+        <v>3.44</v>
+      </c>
+      <c r="L37">
+        <v>4.51</v>
+      </c>
+      <c r="M37">
+        <v>0.257418</v>
+      </c>
+      <c r="N37">
+        <v>4.252581999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.36082624</v>
+      </c>
+      <c r="P37">
+        <v>2.89175576</v>
+      </c>
+      <c r="Q37">
+        <v>6.33175576</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08585584484652986</v>
+      </c>
+      <c r="T37">
+        <v>1.166375854010684</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.32</v>
+      </c>
+      <c r="W37">
+        <v>0.011016</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>17.52014233658874</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05949973915330658</v>
+      </c>
+      <c r="C38">
+        <v>31.68550182981877</v>
+      </c>
+      <c r="D38">
+        <v>46.94950182981877</v>
+      </c>
+      <c r="E38">
+        <v>-16.556</v>
+      </c>
+      <c r="F38">
+        <v>16.344</v>
+      </c>
+      <c r="G38">
+        <v>1.08</v>
+      </c>
+      <c r="H38">
+        <v>12.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.95</v>
+      </c>
+      <c r="K38">
+        <v>3.44</v>
+      </c>
+      <c r="L38">
+        <v>4.51</v>
+      </c>
+      <c r="M38">
+        <v>0.2647728</v>
+      </c>
+      <c r="N38">
+        <v>4.2452272</v>
+      </c>
+      <c r="O38">
+        <v>1.358472704</v>
+      </c>
+      <c r="P38">
+        <v>2.886754496</v>
+      </c>
+      <c r="Q38">
+        <v>6.326754496</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08677184242704153</v>
+      </c>
+      <c r="T38">
+        <v>1.180331646182828</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.32</v>
+      </c>
+      <c r="W38">
+        <v>0.011016</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>17.03347171612794</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05933757915636877</v>
+      </c>
+      <c r="C39">
+        <v>31.34898763552097</v>
+      </c>
+      <c r="D39">
+        <v>47.06698763552097</v>
+      </c>
+      <c r="E39">
+        <v>-16.102</v>
+      </c>
+      <c r="F39">
+        <v>16.798</v>
+      </c>
+      <c r="G39">
+        <v>1.08</v>
+      </c>
+      <c r="H39">
+        <v>12.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.95</v>
+      </c>
+      <c r="K39">
+        <v>3.44</v>
+      </c>
+      <c r="L39">
+        <v>4.51</v>
+      </c>
+      <c r="M39">
+        <v>0.2721276</v>
+      </c>
+      <c r="N39">
+        <v>4.2378724</v>
+      </c>
+      <c r="O39">
+        <v>1.356119168</v>
+      </c>
+      <c r="P39">
+        <v>2.881753231999999</v>
+      </c>
+      <c r="Q39">
+        <v>6.321753232</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08771691929582344</v>
+      </c>
+      <c r="T39">
+        <v>1.194730479376309</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.32</v>
+      </c>
+      <c r="W39">
+        <v>0.011016</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>16.57310761569205</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05917541915943096</v>
+      </c>
+      <c r="C40">
+        <v>31.01306290611121</v>
+      </c>
+      <c r="D40">
+        <v>47.18506290611121</v>
+      </c>
+      <c r="E40">
+        <v>-15.648</v>
+      </c>
+      <c r="F40">
+        <v>17.252</v>
+      </c>
+      <c r="G40">
+        <v>1.08</v>
+      </c>
+      <c r="H40">
+        <v>12.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.95</v>
+      </c>
+      <c r="K40">
+        <v>3.44</v>
+      </c>
+      <c r="L40">
+        <v>4.51</v>
+      </c>
+      <c r="M40">
+        <v>0.2794824</v>
+      </c>
+      <c r="N40">
+        <v>4.2305176</v>
+      </c>
+      <c r="O40">
+        <v>1.353765632</v>
+      </c>
+      <c r="P40">
+        <v>2.876751968</v>
+      </c>
+      <c r="Q40">
+        <v>6.316751968</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08869248251521122</v>
+      </c>
+      <c r="T40">
+        <v>1.209593791059903</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.32</v>
+      </c>
+      <c r="W40">
+        <v>0.011016</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>16.13697320475278</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05901325916249313</v>
+      </c>
+      <c r="C41">
+        <v>30.67773208905526</v>
+      </c>
+      <c r="D41">
+        <v>47.30373208905526</v>
+      </c>
+      <c r="E41">
+        <v>-15.194</v>
+      </c>
+      <c r="F41">
+        <v>17.706</v>
+      </c>
+      <c r="G41">
+        <v>1.08</v>
+      </c>
+      <c r="H41">
+        <v>12.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.95</v>
+      </c>
+      <c r="K41">
+        <v>3.44</v>
+      </c>
+      <c r="L41">
+        <v>4.51</v>
+      </c>
+      <c r="M41">
+        <v>0.2868372</v>
+      </c>
+      <c r="N41">
+        <v>4.2231628</v>
+      </c>
+      <c r="O41">
+        <v>1.351412096</v>
+      </c>
+      <c r="P41">
+        <v>2.871750704</v>
+      </c>
+      <c r="Q41">
+        <v>6.311750704</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08970003141392316</v>
+      </c>
+      <c r="T41">
+        <v>1.224944424438041</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.32</v>
+      </c>
+      <c r="W41">
+        <v>0.011016</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>15.72320466104118</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05885109916555531</v>
+      </c>
+      <c r="C42">
+        <v>30.34299967667262</v>
+      </c>
+      <c r="D42">
+        <v>47.42299967667262</v>
+      </c>
+      <c r="E42">
+        <v>-14.74</v>
+      </c>
+      <c r="F42">
+        <v>18.16</v>
+      </c>
+      <c r="G42">
+        <v>1.08</v>
+      </c>
+      <c r="H42">
+        <v>12.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.95</v>
+      </c>
+      <c r="K42">
+        <v>3.44</v>
+      </c>
+      <c r="L42">
+        <v>4.51</v>
+      </c>
+      <c r="M42">
+        <v>0.294192</v>
+      </c>
+      <c r="N42">
+        <v>4.215808</v>
+      </c>
+      <c r="O42">
+        <v>1.34905856</v>
+      </c>
+      <c r="P42">
+        <v>2.86674944</v>
+      </c>
+      <c r="Q42">
+        <v>6.306749440000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09074116527592552</v>
+      </c>
+      <c r="T42">
+        <v>1.24080674559545</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.32</v>
+      </c>
+      <c r="W42">
+        <v>0.011016</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>15.33012454451515</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05868893916861749</v>
+      </c>
+      <c r="C43">
+        <v>30.00887020670362</v>
+      </c>
+      <c r="D43">
+        <v>47.54287020670363</v>
+      </c>
+      <c r="E43">
+        <v>-14.286</v>
+      </c>
+      <c r="F43">
+        <v>18.614</v>
+      </c>
+      <c r="G43">
+        <v>1.08</v>
+      </c>
+      <c r="H43">
+        <v>12.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.95</v>
+      </c>
+      <c r="K43">
+        <v>3.44</v>
+      </c>
+      <c r="L43">
+        <v>4.51</v>
+      </c>
+      <c r="M43">
+        <v>0.3015468</v>
+      </c>
+      <c r="N43">
+        <v>4.2084532</v>
+      </c>
+      <c r="O43">
+        <v>1.346705024</v>
+      </c>
+      <c r="P43">
+        <v>2.861748176</v>
+      </c>
+      <c r="Q43">
+        <v>6.301748176</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.0918175918112161</v>
+      </c>
+      <c r="T43">
+        <v>1.257206772554805</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.32</v>
+      </c>
+      <c r="W43">
+        <v>0.011016</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>14.95621906781965</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05852677917167969</v>
+      </c>
+      <c r="C44">
+        <v>29.67534826288473</v>
+      </c>
+      <c r="D44">
+        <v>47.66334826288473</v>
+      </c>
+      <c r="E44">
+        <v>-13.832</v>
+      </c>
+      <c r="F44">
+        <v>19.068</v>
+      </c>
+      <c r="G44">
+        <v>1.08</v>
+      </c>
+      <c r="H44">
+        <v>12.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.95</v>
+      </c>
+      <c r="K44">
+        <v>3.44</v>
+      </c>
+      <c r="L44">
+        <v>4.51</v>
+      </c>
+      <c r="M44">
+        <v>0.3089015999999999</v>
+      </c>
+      <c r="N44">
+        <v>4.2010984</v>
+      </c>
+      <c r="O44">
+        <v>1.344351488</v>
+      </c>
+      <c r="P44">
+        <v>2.856746912</v>
+      </c>
+      <c r="Q44">
+        <v>6.296746912000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09293113650289601</v>
+      </c>
+      <c r="T44">
+        <v>1.274172317685173</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.32</v>
+      </c>
+      <c r="W44">
+        <v>0.011016</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>14.60011861382395</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05836461917474187</v>
+      </c>
+      <c r="C45">
+        <v>29.34243847553302</v>
+      </c>
+      <c r="D45">
+        <v>47.78443847553302</v>
+      </c>
+      <c r="E45">
+        <v>-13.378</v>
+      </c>
+      <c r="F45">
+        <v>19.522</v>
+      </c>
+      <c r="G45">
+        <v>1.08</v>
+      </c>
+      <c r="H45">
+        <v>12.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.95</v>
+      </c>
+      <c r="K45">
+        <v>3.44</v>
+      </c>
+      <c r="L45">
+        <v>4.51</v>
+      </c>
+      <c r="M45">
+        <v>0.3162563999999999</v>
+      </c>
+      <c r="N45">
+        <v>4.193743599999999</v>
+      </c>
+      <c r="O45">
+        <v>1.341997952</v>
+      </c>
+      <c r="P45">
+        <v>2.851745648</v>
+      </c>
+      <c r="Q45">
+        <v>6.291745648</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09408375293814361</v>
+      </c>
+      <c r="T45">
+        <v>1.291733145100816</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.32</v>
+      </c>
+      <c r="W45">
+        <v>0.011016</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>14.260580971642</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05820245917780405</v>
+      </c>
+      <c r="C46">
+        <v>29.01014552213915</v>
+      </c>
+      <c r="D46">
+        <v>47.90614552213915</v>
+      </c>
+      <c r="E46">
+        <v>-12.924</v>
+      </c>
+      <c r="F46">
+        <v>19.976</v>
+      </c>
+      <c r="G46">
+        <v>1.08</v>
+      </c>
+      <c r="H46">
+        <v>12.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.95</v>
+      </c>
+      <c r="K46">
+        <v>3.44</v>
+      </c>
+      <c r="L46">
+        <v>4.51</v>
+      </c>
+      <c r="M46">
+        <v>0.3236112</v>
+      </c>
+      <c r="N46">
+        <v>4.1863888</v>
+      </c>
+      <c r="O46">
+        <v>1.339644416</v>
+      </c>
+      <c r="P46">
+        <v>2.846744384</v>
+      </c>
+      <c r="Q46">
+        <v>6.286744384</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09527753424607865</v>
+      </c>
+      <c r="T46">
+        <v>1.309921144924161</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.32</v>
+      </c>
+      <c r="W46">
+        <v>0.011016</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>13.93647685865013</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05852989918086622</v>
+      </c>
+      <c r="C47">
+        <v>28.31102446649073</v>
+      </c>
+      <c r="D47">
+        <v>47.66102446649073</v>
+      </c>
+      <c r="E47">
+        <v>-12.47</v>
+      </c>
+      <c r="F47">
+        <v>20.43</v>
+      </c>
+      <c r="G47">
+        <v>1.08</v>
+      </c>
+      <c r="H47">
+        <v>12.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.95</v>
+      </c>
+      <c r="K47">
+        <v>3.44</v>
+      </c>
+      <c r="L47">
+        <v>4.51</v>
+      </c>
+      <c r="M47">
+        <v>0.363654</v>
+      </c>
+      <c r="N47">
+        <v>4.146345999999999</v>
+      </c>
+      <c r="O47">
+        <v>1.32683072</v>
+      </c>
+      <c r="P47">
+        <v>2.81951528</v>
+      </c>
+      <c r="Q47">
+        <v>6.25951528</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09651472578339312</v>
+      </c>
+      <c r="T47">
+        <v>1.328770526559264</v>
+      </c>
+      <c r="U47">
+        <v>0.0178</v>
+      </c>
+      <c r="V47">
+        <v>0.32</v>
+      </c>
+      <c r="W47">
+        <v>0.012104</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>12.40189850792236</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05837861918392842</v>
+      </c>
+      <c r="C48">
+        <v>27.96995994631584</v>
+      </c>
+      <c r="D48">
+        <v>47.77395994631584</v>
+      </c>
+      <c r="E48">
+        <v>-12.016</v>
+      </c>
+      <c r="F48">
+        <v>20.884</v>
+      </c>
+      <c r="G48">
+        <v>1.08</v>
+      </c>
+      <c r="H48">
+        <v>12.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.95</v>
+      </c>
+      <c r="K48">
+        <v>3.44</v>
+      </c>
+      <c r="L48">
+        <v>4.51</v>
+      </c>
+      <c r="M48">
+        <v>0.3717352</v>
+      </c>
+      <c r="N48">
+        <v>4.1382648</v>
+      </c>
+      <c r="O48">
+        <v>1.324244736</v>
+      </c>
+      <c r="P48">
+        <v>2.814020064</v>
+      </c>
+      <c r="Q48">
+        <v>6.254020064000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09779773922949707</v>
+      </c>
+      <c r="T48">
+        <v>1.348318033440112</v>
+      </c>
+      <c r="U48">
+        <v>0.0178</v>
+      </c>
+      <c r="V48">
+        <v>0.32</v>
+      </c>
+      <c r="W48">
+        <v>0.012104</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>12.13229201861971</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05822733918699059</v>
+      </c>
+      <c r="C49">
+        <v>27.62943191132366</v>
+      </c>
+      <c r="D49">
+        <v>47.88743191132366</v>
+      </c>
+      <c r="E49">
+        <v>-11.562</v>
+      </c>
+      <c r="F49">
+        <v>21.338</v>
+      </c>
+      <c r="G49">
+        <v>1.08</v>
+      </c>
+      <c r="H49">
+        <v>12.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.95</v>
+      </c>
+      <c r="K49">
+        <v>3.44</v>
+      </c>
+      <c r="L49">
+        <v>4.51</v>
+      </c>
+      <c r="M49">
+        <v>0.3798164</v>
+      </c>
+      <c r="N49">
+        <v>4.1301836</v>
+      </c>
+      <c r="O49">
+        <v>1.321658752</v>
+      </c>
+      <c r="P49">
+        <v>2.808524848</v>
+      </c>
+      <c r="Q49">
+        <v>6.248524848000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09912916827734074</v>
+      </c>
+      <c r="T49">
+        <v>1.368603182090048</v>
+      </c>
+      <c r="U49">
+        <v>0.0178</v>
+      </c>
+      <c r="V49">
+        <v>0.32</v>
+      </c>
+      <c r="W49">
+        <v>0.012104</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>11.87415814588311</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05807605919005277</v>
+      </c>
+      <c r="C50">
+        <v>27.28944419336927</v>
+      </c>
+      <c r="D50">
+        <v>48.00144419336927</v>
+      </c>
+      <c r="E50">
+        <v>-11.108</v>
+      </c>
+      <c r="F50">
+        <v>21.792</v>
+      </c>
+      <c r="G50">
+        <v>1.08</v>
+      </c>
+      <c r="H50">
+        <v>12.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.95</v>
+      </c>
+      <c r="K50">
+        <v>3.44</v>
+      </c>
+      <c r="L50">
+        <v>4.51</v>
+      </c>
+      <c r="M50">
+        <v>0.3878976</v>
+      </c>
+      <c r="N50">
+        <v>4.1221024</v>
+      </c>
+      <c r="O50">
+        <v>1.319072768</v>
+      </c>
+      <c r="P50">
+        <v>2.803029632</v>
+      </c>
+      <c r="Q50">
+        <v>6.243029632000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1005118061347169</v>
+      </c>
+      <c r="T50">
+        <v>1.389668528764982</v>
+      </c>
+      <c r="U50">
+        <v>0.0178</v>
+      </c>
+      <c r="V50">
+        <v>0.32</v>
+      </c>
+      <c r="W50">
+        <v>0.012104</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>11.62677985117722</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05792477919311496</v>
+      </c>
+      <c r="C51">
+        <v>26.95000066088695</v>
+      </c>
+      <c r="D51">
+        <v>48.11600066088695</v>
+      </c>
+      <c r="E51">
+        <v>-10.654</v>
+      </c>
+      <c r="F51">
+        <v>22.246</v>
+      </c>
+      <c r="G51">
+        <v>1.08</v>
+      </c>
+      <c r="H51">
+        <v>12.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.95</v>
+      </c>
+      <c r="K51">
+        <v>3.44</v>
+      </c>
+      <c r="L51">
+        <v>4.51</v>
+      </c>
+      <c r="M51">
+        <v>0.3959788</v>
+      </c>
+      <c r="N51">
+        <v>4.1140212</v>
+      </c>
+      <c r="O51">
+        <v>1.316486784</v>
+      </c>
+      <c r="P51">
+        <v>2.797534416</v>
+      </c>
+      <c r="Q51">
+        <v>6.237534416</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1019486650845391</v>
+      </c>
+      <c r="T51">
+        <v>1.411559967466384</v>
+      </c>
+      <c r="U51">
+        <v>0.0178</v>
+      </c>
+      <c r="V51">
+        <v>0.32</v>
+      </c>
+      <c r="W51">
+        <v>0.012104</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>11.38949862972462</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05777349919617714</v>
+      </c>
+      <c r="C52">
+        <v>26.6111052193278</v>
+      </c>
+      <c r="D52">
+        <v>48.2311052193278</v>
+      </c>
+      <c r="E52">
+        <v>-10.2</v>
+      </c>
+      <c r="F52">
+        <v>22.7</v>
+      </c>
+      <c r="G52">
+        <v>1.08</v>
+      </c>
+      <c r="H52">
+        <v>12.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.95</v>
+      </c>
+      <c r="K52">
+        <v>3.44</v>
+      </c>
+      <c r="L52">
+        <v>4.51</v>
+      </c>
+      <c r="M52">
+        <v>0.40406</v>
+      </c>
+      <c r="N52">
+        <v>4.105939999999999</v>
+      </c>
+      <c r="O52">
+        <v>1.3139008</v>
+      </c>
+      <c r="P52">
+        <v>2.7920392</v>
+      </c>
+      <c r="Q52">
+        <v>6.2320392</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1034429983923543</v>
+      </c>
+      <c r="T52">
+        <v>1.434327063715841</v>
+      </c>
+      <c r="U52">
+        <v>0.0178</v>
+      </c>
+      <c r="V52">
+        <v>0.32</v>
+      </c>
+      <c r="W52">
+        <v>0.012104</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>11.16170865713013</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05762221919923932</v>
+      </c>
+      <c r="C53">
+        <v>26.27276181160341</v>
+      </c>
+      <c r="D53">
+        <v>48.34676181160341</v>
+      </c>
+      <c r="E53">
+        <v>-9.745999999999999</v>
+      </c>
+      <c r="F53">
+        <v>23.154</v>
+      </c>
+      <c r="G53">
+        <v>1.08</v>
+      </c>
+      <c r="H53">
+        <v>12.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.95</v>
+      </c>
+      <c r="K53">
+        <v>3.44</v>
+      </c>
+      <c r="L53">
+        <v>4.51</v>
+      </c>
+      <c r="M53">
+        <v>0.4121412</v>
+      </c>
+      <c r="N53">
+        <v>4.0978588</v>
+      </c>
+      <c r="O53">
+        <v>1.311314816</v>
+      </c>
+      <c r="P53">
+        <v>2.786543984</v>
+      </c>
+      <c r="Q53">
+        <v>6.226543984</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1049983248964068</v>
+      </c>
+      <c r="T53">
+        <v>1.458023429199971</v>
+      </c>
+      <c r="U53">
+        <v>0.0178</v>
+      </c>
+      <c r="V53">
+        <v>0.32</v>
+      </c>
+      <c r="W53">
+        <v>0.012104</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>10.94285162463738</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05747093920230151</v>
+      </c>
+      <c r="C54">
+        <v>25.9349744185362</v>
+      </c>
+      <c r="D54">
+        <v>48.4629744185362</v>
+      </c>
+      <c r="E54">
+        <v>-9.291999999999998</v>
+      </c>
+      <c r="F54">
+        <v>23.608</v>
+      </c>
+      <c r="G54">
+        <v>1.08</v>
+      </c>
+      <c r="H54">
+        <v>12.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.95</v>
+      </c>
+      <c r="K54">
+        <v>3.44</v>
+      </c>
+      <c r="L54">
+        <v>4.51</v>
+      </c>
+      <c r="M54">
+        <v>0.4202224</v>
+      </c>
+      <c r="N54">
+        <v>4.0897776</v>
+      </c>
+      <c r="O54">
+        <v>1.308728832</v>
+      </c>
+      <c r="P54">
+        <v>2.781048768</v>
+      </c>
+      <c r="Q54">
+        <v>6.221048768</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1066184566714615</v>
+      </c>
+      <c r="T54">
+        <v>1.48270714324594</v>
+      </c>
+      <c r="U54">
+        <v>0.0178</v>
+      </c>
+      <c r="V54">
+        <v>0.32</v>
+      </c>
+      <c r="W54">
+        <v>0.012104</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>10.73241217031743</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05811253920536369</v>
+      </c>
+      <c r="C55">
+        <v>24.99190135879271</v>
+      </c>
+      <c r="D55">
+        <v>47.97390135879271</v>
+      </c>
+      <c r="E55">
+        <v>-8.837999999999997</v>
+      </c>
+      <c r="F55">
+        <v>24.062</v>
+      </c>
+      <c r="G55">
+        <v>1.08</v>
+      </c>
+      <c r="H55">
+        <v>12.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.95</v>
+      </c>
+      <c r="K55">
+        <v>3.44</v>
+      </c>
+      <c r="L55">
+        <v>4.51</v>
+      </c>
+      <c r="M55">
+        <v>0.4812399999999999</v>
+      </c>
+      <c r="N55">
+        <v>4.02876</v>
+      </c>
+      <c r="O55">
+        <v>1.2892032</v>
+      </c>
+      <c r="P55">
+        <v>2.7395568</v>
+      </c>
+      <c r="Q55">
+        <v>6.1795568</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1083075302241781</v>
+      </c>
+      <c r="T55">
+        <v>1.508441228102374</v>
+      </c>
+      <c r="U55">
+        <v>0.02</v>
+      </c>
+      <c r="V55">
+        <v>0.32</v>
+      </c>
+      <c r="W55">
+        <v>0.0136</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>9.371623306458318</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05797621920842586</v>
+      </c>
+      <c r="C56">
+        <v>24.64098651267888</v>
+      </c>
+      <c r="D56">
+        <v>48.07698651267889</v>
+      </c>
+      <c r="E56">
+        <v>-8.383999999999997</v>
+      </c>
+      <c r="F56">
+        <v>24.516</v>
+      </c>
+      <c r="G56">
+        <v>1.08</v>
+      </c>
+      <c r="H56">
+        <v>12.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.95</v>
+      </c>
+      <c r="K56">
+        <v>3.44</v>
+      </c>
+      <c r="L56">
+        <v>4.51</v>
+      </c>
+      <c r="M56">
+        <v>0.49032</v>
+      </c>
+      <c r="N56">
+        <v>4.01968</v>
+      </c>
+      <c r="O56">
+        <v>1.2862976</v>
+      </c>
+      <c r="P56">
+        <v>2.7333824</v>
+      </c>
+      <c r="Q56">
+        <v>6.1733824</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1100700417574475</v>
+      </c>
+      <c r="T56">
+        <v>1.535294186213437</v>
+      </c>
+      <c r="U56">
+        <v>0.02</v>
+      </c>
+      <c r="V56">
+        <v>0.32</v>
+      </c>
+      <c r="W56">
+        <v>0.0136</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>9.198074726709089</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05783989921148806</v>
+      </c>
+      <c r="C57">
+        <v>24.29051563430131</v>
+      </c>
+      <c r="D57">
+        <v>48.18051563430132</v>
+      </c>
+      <c r="E57">
+        <v>-7.929999999999996</v>
+      </c>
+      <c r="F57">
+        <v>24.97</v>
+      </c>
+      <c r="G57">
+        <v>1.08</v>
+      </c>
+      <c r="H57">
+        <v>12.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.95</v>
+      </c>
+      <c r="K57">
+        <v>3.44</v>
+      </c>
+      <c r="L57">
+        <v>4.51</v>
+      </c>
+      <c r="M57">
+        <v>0.4994</v>
+      </c>
+      <c r="N57">
+        <v>4.0106</v>
+      </c>
+      <c r="O57">
+        <v>1.283392</v>
+      </c>
+      <c r="P57">
+        <v>2.727208</v>
+      </c>
+      <c r="Q57">
+        <v>6.167208</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1119108871366401</v>
+      </c>
+      <c r="T57">
+        <v>1.563340609129436</v>
+      </c>
+      <c r="U57">
+        <v>0.02</v>
+      </c>
+      <c r="V57">
+        <v>0.32</v>
+      </c>
+      <c r="W57">
+        <v>0.0136</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>9.030837004405287</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05770357921455022</v>
+      </c>
+      <c r="C58">
+        <v>23.94049159797379</v>
+      </c>
+      <c r="D58">
+        <v>48.2844915979738</v>
+      </c>
+      <c r="E58">
+        <v>-7.475999999999996</v>
+      </c>
+      <c r="F58">
+        <v>25.424</v>
+      </c>
+      <c r="G58">
+        <v>1.08</v>
+      </c>
+      <c r="H58">
+        <v>12.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.95</v>
+      </c>
+      <c r="K58">
+        <v>3.44</v>
+      </c>
+      <c r="L58">
+        <v>4.51</v>
+      </c>
+      <c r="M58">
+        <v>0.5084799999999999</v>
+      </c>
+      <c r="N58">
+        <v>4.00152</v>
+      </c>
+      <c r="O58">
+        <v>1.2804864</v>
+      </c>
+      <c r="P58">
+        <v>2.7210336</v>
+      </c>
+      <c r="Q58">
+        <v>6.161033600000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.113835407305796</v>
+      </c>
+      <c r="T58">
+        <v>1.592661869450707</v>
+      </c>
+      <c r="U58">
+        <v>0.02</v>
+      </c>
+      <c r="V58">
+        <v>0.32</v>
+      </c>
+      <c r="W58">
+        <v>0.0136</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>8.869572057898051</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.05756725921761242</v>
+      </c>
+      <c r="C59">
+        <v>23.59091730287536</v>
+      </c>
+      <c r="D59">
+        <v>48.38891730287537</v>
+      </c>
+      <c r="E59">
+        <v>-7.021999999999995</v>
+      </c>
+      <c r="F59">
+        <v>25.878</v>
+      </c>
+      <c r="G59">
+        <v>1.08</v>
+      </c>
+      <c r="H59">
+        <v>12.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.95</v>
+      </c>
+      <c r="K59">
+        <v>3.44</v>
+      </c>
+      <c r="L59">
+        <v>4.51</v>
+      </c>
+      <c r="M59">
+        <v>0.51756</v>
+      </c>
+      <c r="N59">
+        <v>3.99244</v>
+      </c>
+      <c r="O59">
+        <v>1.2775808</v>
+      </c>
+      <c r="P59">
+        <v>2.7148592</v>
+      </c>
+      <c r="Q59">
+        <v>6.154859200000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1158494400409591</v>
+      </c>
+      <c r="T59">
+        <v>1.623346909321805</v>
+      </c>
+      <c r="U59">
+        <v>0.02</v>
+      </c>
+      <c r="V59">
+        <v>0.32</v>
+      </c>
+      <c r="W59">
+        <v>0.0136</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>8.713965530566504</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.0574309392206746</v>
+      </c>
+      <c r="C60">
+        <v>23.24179567331995</v>
+      </c>
+      <c r="D60">
+        <v>48.49379567331994</v>
+      </c>
+      <c r="E60">
+        <v>-6.568000000000001</v>
+      </c>
+      <c r="F60">
+        <v>26.332</v>
+      </c>
+      <c r="G60">
+        <v>1.08</v>
+      </c>
+      <c r="H60">
+        <v>12.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.95</v>
+      </c>
+      <c r="K60">
+        <v>3.44</v>
+      </c>
+      <c r="L60">
+        <v>4.51</v>
+      </c>
+      <c r="M60">
+        <v>0.5266399999999999</v>
+      </c>
+      <c r="N60">
+        <v>3.98336</v>
+      </c>
+      <c r="O60">
+        <v>1.2746752</v>
+      </c>
+      <c r="P60">
+        <v>2.7086848</v>
+      </c>
+      <c r="Q60">
+        <v>6.1486848</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1179593790968443</v>
+      </c>
+      <c r="T60">
+        <v>1.655493141567717</v>
+      </c>
+      <c r="U60">
+        <v>0.02</v>
+      </c>
+      <c r="V60">
+        <v>0.32</v>
+      </c>
+      <c r="W60">
+        <v>0.0136</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>8.563724745556739</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05729461922373678</v>
+      </c>
+      <c r="C61">
+        <v>22.89312965902911</v>
+      </c>
+      <c r="D61">
+        <v>48.59912965902911</v>
+      </c>
+      <c r="E61">
+        <v>-6.114000000000001</v>
+      </c>
+      <c r="F61">
+        <v>26.786</v>
+      </c>
+      <c r="G61">
+        <v>1.08</v>
+      </c>
+      <c r="H61">
+        <v>12.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.95</v>
+      </c>
+      <c r="K61">
+        <v>3.44</v>
+      </c>
+      <c r="L61">
+        <v>4.51</v>
+      </c>
+      <c r="M61">
+        <v>0.5357199999999999</v>
+      </c>
+      <c r="N61">
+        <v>3.97428</v>
+      </c>
+      <c r="O61">
+        <v>1.2717696</v>
+      </c>
+      <c r="P61">
+        <v>2.7025104</v>
+      </c>
+      <c r="Q61">
+        <v>6.1425104</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1201722420091141</v>
+      </c>
+      <c r="T61">
+        <v>1.689207482703674</v>
+      </c>
+      <c r="U61">
+        <v>0.02</v>
+      </c>
+      <c r="V61">
+        <v>0.32</v>
+      </c>
+      <c r="W61">
+        <v>0.0136</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>8.418576868513405</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05715829922679896</v>
+      </c>
+      <c r="C62">
+        <v>22.5449222354088</v>
+      </c>
+      <c r="D62">
+        <v>48.7049222354088</v>
+      </c>
+      <c r="E62">
+        <v>-5.66</v>
+      </c>
+      <c r="F62">
+        <v>27.24</v>
+      </c>
+      <c r="G62">
+        <v>1.08</v>
+      </c>
+      <c r="H62">
+        <v>12.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.95</v>
+      </c>
+      <c r="K62">
+        <v>3.44</v>
+      </c>
+      <c r="L62">
+        <v>4.51</v>
+      </c>
+      <c r="M62">
+        <v>0.5447999999999998</v>
+      </c>
+      <c r="N62">
+        <v>3.9652</v>
+      </c>
+      <c r="O62">
+        <v>1.268864</v>
+      </c>
+      <c r="P62">
+        <v>2.696336</v>
+      </c>
+      <c r="Q62">
+        <v>6.136336</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1224957480669974</v>
+      </c>
+      <c r="T62">
+        <v>1.724607540896428</v>
+      </c>
+      <c r="U62">
+        <v>0.02</v>
+      </c>
+      <c r="V62">
+        <v>0.32</v>
+      </c>
+      <c r="W62">
+        <v>0.0136</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>8.27826725403818</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05702197922986114</v>
+      </c>
+      <c r="C63">
+        <v>22.19717640382938</v>
+      </c>
+      <c r="D63">
+        <v>48.81117640382939</v>
+      </c>
+      <c r="E63">
+        <v>-5.206</v>
+      </c>
+      <c r="F63">
+        <v>27.694</v>
+      </c>
+      <c r="G63">
+        <v>1.08</v>
+      </c>
+      <c r="H63">
+        <v>12.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.95</v>
+      </c>
+      <c r="K63">
+        <v>3.44</v>
+      </c>
+      <c r="L63">
+        <v>4.51</v>
+      </c>
+      <c r="M63">
+        <v>0.5538799999999999</v>
+      </c>
+      <c r="N63">
+        <v>3.95612</v>
+      </c>
+      <c r="O63">
+        <v>1.2659584</v>
+      </c>
+      <c r="P63">
+        <v>2.6901616</v>
+      </c>
+      <c r="Q63">
+        <v>6.1301616</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1249384082816952</v>
+      </c>
+      <c r="T63">
+        <v>1.761822986688811</v>
+      </c>
+      <c r="U63">
+        <v>0.02</v>
+      </c>
+      <c r="V63">
+        <v>0.32</v>
+      </c>
+      <c r="W63">
+        <v>0.0136</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>8.142557954791652</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05688565923292331</v>
+      </c>
+      <c r="C64">
+        <v>21.84989519190958</v>
+      </c>
+      <c r="D64">
+        <v>48.91789519190958</v>
+      </c>
+      <c r="E64">
+        <v>-4.751999999999999</v>
+      </c>
+      <c r="F64">
+        <v>28.148</v>
+      </c>
+      <c r="G64">
+        <v>1.08</v>
+      </c>
+      <c r="H64">
+        <v>12.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.95</v>
+      </c>
+      <c r="K64">
+        <v>3.44</v>
+      </c>
+      <c r="L64">
+        <v>4.51</v>
+      </c>
+      <c r="M64">
+        <v>0.5629599999999999</v>
+      </c>
+      <c r="N64">
+        <v>3.94704</v>
+      </c>
+      <c r="O64">
+        <v>1.2630528</v>
+      </c>
+      <c r="P64">
+        <v>2.6839872</v>
+      </c>
+      <c r="Q64">
+        <v>6.1239872</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1275096295603245</v>
+      </c>
+      <c r="T64">
+        <v>1.800997140154477</v>
+      </c>
+      <c r="U64">
+        <v>0.02</v>
+      </c>
+      <c r="V64">
+        <v>0.32</v>
+      </c>
+      <c r="W64">
+        <v>0.0136</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>8.011226374875658</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.0572205792359855</v>
+      </c>
+      <c r="C65">
+        <v>21.13453208697051</v>
+      </c>
+      <c r="D65">
+        <v>48.65653208697051</v>
+      </c>
+      <c r="E65">
+        <v>-4.297999999999998</v>
+      </c>
+      <c r="F65">
+        <v>28.602</v>
+      </c>
+      <c r="G65">
+        <v>1.08</v>
+      </c>
+      <c r="H65">
+        <v>12.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.95</v>
+      </c>
+      <c r="K65">
+        <v>3.44</v>
+      </c>
+      <c r="L65">
+        <v>4.51</v>
+      </c>
+      <c r="M65">
+        <v>0.6035022</v>
+      </c>
+      <c r="N65">
+        <v>3.9064978</v>
+      </c>
+      <c r="O65">
+        <v>1.250079296</v>
+      </c>
+      <c r="P65">
+        <v>2.656418504</v>
+      </c>
+      <c r="Q65">
+        <v>6.096418504000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1302198357729338</v>
+      </c>
+      <c r="T65">
+        <v>1.842288815429099</v>
+      </c>
+      <c r="U65">
+        <v>0.0211</v>
+      </c>
+      <c r="V65">
+        <v>0.32</v>
+      </c>
+      <c r="W65">
+        <v>0.014348</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>7.473046494279557</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05709173923904769</v>
+      </c>
+      <c r="C66">
+        <v>20.78074434235013</v>
+      </c>
+      <c r="D66">
+        <v>48.75674434235013</v>
+      </c>
+      <c r="E66">
+        <v>-3.843999999999998</v>
+      </c>
+      <c r="F66">
+        <v>29.056</v>
+      </c>
+      <c r="G66">
+        <v>1.08</v>
+      </c>
+      <c r="H66">
+        <v>12.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.95</v>
+      </c>
+      <c r="K66">
+        <v>3.44</v>
+      </c>
+      <c r="L66">
+        <v>4.51</v>
+      </c>
+      <c r="M66">
+        <v>0.6130816</v>
+      </c>
+      <c r="N66">
+        <v>3.8969184</v>
+      </c>
+      <c r="O66">
+        <v>1.247013888</v>
+      </c>
+      <c r="P66">
+        <v>2.649904512</v>
+      </c>
+      <c r="Q66">
+        <v>6.089904512</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1330806089973547</v>
+      </c>
+      <c r="T66">
+        <v>1.885874472663421</v>
+      </c>
+      <c r="U66">
+        <v>0.0211</v>
+      </c>
+      <c r="V66">
+        <v>0.32</v>
+      </c>
+      <c r="W66">
+        <v>0.014348</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>7.356280142806439</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05696289924210987</v>
+      </c>
+      <c r="C67">
+        <v>20.42737024094501</v>
+      </c>
+      <c r="D67">
+        <v>48.85737024094501</v>
+      </c>
+      <c r="E67">
+        <v>-3.389999999999997</v>
+      </c>
+      <c r="F67">
+        <v>29.51</v>
+      </c>
+      <c r="G67">
+        <v>1.08</v>
+      </c>
+      <c r="H67">
+        <v>12.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.95</v>
+      </c>
+      <c r="K67">
+        <v>3.44</v>
+      </c>
+      <c r="L67">
+        <v>4.51</v>
+      </c>
+      <c r="M67">
+        <v>0.622661</v>
+      </c>
+      <c r="N67">
+        <v>3.887339</v>
+      </c>
+      <c r="O67">
+        <v>1.24394848</v>
+      </c>
+      <c r="P67">
+        <v>2.64339052</v>
+      </c>
+      <c r="Q67">
+        <v>6.08339052</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1361048549774568</v>
+      </c>
+      <c r="T67">
+        <v>1.931950738882562</v>
+      </c>
+      <c r="U67">
+        <v>0.0211</v>
+      </c>
+      <c r="V67">
+        <v>0.32</v>
+      </c>
+      <c r="W67">
+        <v>0.014348</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>7.243106602147877</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05683405924517206</v>
+      </c>
+      <c r="C68">
+        <v>20.07441234912634</v>
+      </c>
+      <c r="D68">
+        <v>48.95841234912634</v>
+      </c>
+      <c r="E68">
+        <v>-2.935999999999996</v>
+      </c>
+      <c r="F68">
+        <v>29.964</v>
+      </c>
+      <c r="G68">
+        <v>1.08</v>
+      </c>
+      <c r="H68">
+        <v>12.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.95</v>
+      </c>
+      <c r="K68">
+        <v>3.44</v>
+      </c>
+      <c r="L68">
+        <v>4.51</v>
+      </c>
+      <c r="M68">
+        <v>0.6322404</v>
+      </c>
+      <c r="N68">
+        <v>3.8777596</v>
+      </c>
+      <c r="O68">
+        <v>1.240883072</v>
+      </c>
+      <c r="P68">
+        <v>2.636876528</v>
+      </c>
+      <c r="Q68">
+        <v>6.076876528</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1393069977799178</v>
+      </c>
+      <c r="T68">
+        <v>1.980737373702829</v>
+      </c>
+      <c r="U68">
+        <v>0.0211</v>
+      </c>
+      <c r="V68">
+        <v>0.32</v>
+      </c>
+      <c r="W68">
+        <v>0.014348</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>7.133362562721394</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05670521924823425</v>
+      </c>
+      <c r="C69">
+        <v>19.72187325453941</v>
+      </c>
+      <c r="D69">
+        <v>49.05987325453941</v>
+      </c>
+      <c r="E69">
+        <v>-2.481999999999999</v>
+      </c>
+      <c r="F69">
+        <v>30.418</v>
+      </c>
+      <c r="G69">
+        <v>1.08</v>
+      </c>
+      <c r="H69">
+        <v>12.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.95</v>
+      </c>
+      <c r="K69">
+        <v>3.44</v>
+      </c>
+      <c r="L69">
+        <v>4.51</v>
+      </c>
+      <c r="M69">
+        <v>0.6418198000000001</v>
+      </c>
+      <c r="N69">
+        <v>3.8681802</v>
+      </c>
+      <c r="O69">
+        <v>1.237817664</v>
+      </c>
+      <c r="P69">
+        <v>2.630362536</v>
+      </c>
+      <c r="Q69">
+        <v>6.070362536</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1427032098431341</v>
+      </c>
+      <c r="T69">
+        <v>2.032480774269779</v>
+      </c>
+      <c r="U69">
+        <v>0.0211</v>
+      </c>
+      <c r="V69">
+        <v>0.32</v>
+      </c>
+      <c r="W69">
+        <v>0.014348</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>7.026894464770329</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05657637925129641</v>
+      </c>
+      <c r="C70">
+        <v>19.36975556632449</v>
+      </c>
+      <c r="D70">
+        <v>49.16175556632449</v>
+      </c>
+      <c r="E70">
+        <v>-2.027999999999999</v>
+      </c>
+      <c r="F70">
+        <v>30.872</v>
+      </c>
+      <c r="G70">
+        <v>1.08</v>
+      </c>
+      <c r="H70">
+        <v>12.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.95</v>
+      </c>
+      <c r="K70">
+        <v>3.44</v>
+      </c>
+      <c r="L70">
+        <v>4.51</v>
+      </c>
+      <c r="M70">
+        <v>0.6513992000000001</v>
+      </c>
+      <c r="N70">
+        <v>3.8586008</v>
+      </c>
+      <c r="O70">
+        <v>1.234752256</v>
+      </c>
+      <c r="P70">
+        <v>2.623848543999999</v>
+      </c>
+      <c r="Q70">
+        <v>6.063848544</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1463116851603013</v>
+      </c>
+      <c r="T70">
+        <v>2.087458137372162</v>
+      </c>
+      <c r="U70">
+        <v>0.0211</v>
+      </c>
+      <c r="V70">
+        <v>0.32</v>
+      </c>
+      <c r="W70">
+        <v>0.014348</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>6.923557781464883</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.0564475392543586</v>
+      </c>
+      <c r="C71">
+        <v>19.01806191534043</v>
+      </c>
+      <c r="D71">
+        <v>49.26406191534043</v>
+      </c>
+      <c r="E71">
+        <v>-1.573999999999998</v>
+      </c>
+      <c r="F71">
+        <v>31.326</v>
+      </c>
+      <c r="G71">
+        <v>1.08</v>
+      </c>
+      <c r="H71">
+        <v>12.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.95</v>
+      </c>
+      <c r="K71">
+        <v>3.44</v>
+      </c>
+      <c r="L71">
+        <v>4.51</v>
+      </c>
+      <c r="M71">
+        <v>0.6609786000000001</v>
+      </c>
+      <c r="N71">
+        <v>3.8490214</v>
+      </c>
+      <c r="O71">
+        <v>1.231686848</v>
+      </c>
+      <c r="P71">
+        <v>2.617334552</v>
+      </c>
+      <c r="Q71">
+        <v>6.057334552</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1501529653366407</v>
+      </c>
+      <c r="T71">
+        <v>2.145982427126313</v>
+      </c>
+      <c r="U71">
+        <v>0.0211</v>
+      </c>
+      <c r="V71">
+        <v>0.32</v>
+      </c>
+      <c r="W71">
+        <v>0.014348</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>6.823216364342203</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05631869925742078</v>
+      </c>
+      <c r="C72">
+        <v>18.66679495439126</v>
+      </c>
+      <c r="D72">
+        <v>49.36679495439127</v>
+      </c>
+      <c r="E72">
+        <v>-1.119999999999997</v>
+      </c>
+      <c r="F72">
+        <v>31.78</v>
+      </c>
+      <c r="G72">
+        <v>1.08</v>
+      </c>
+      <c r="H72">
+        <v>12.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.95</v>
+      </c>
+      <c r="K72">
+        <v>3.44</v>
+      </c>
+      <c r="L72">
+        <v>4.51</v>
+      </c>
+      <c r="M72">
+        <v>0.6705580000000001</v>
+      </c>
+      <c r="N72">
+        <v>3.839442</v>
+      </c>
+      <c r="O72">
+        <v>1.22862144</v>
+      </c>
+      <c r="P72">
+        <v>2.61082056</v>
+      </c>
+      <c r="Q72">
+        <v>6.05082056</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1542503308580693</v>
+      </c>
+      <c r="T72">
+        <v>2.208408336197407</v>
+      </c>
+      <c r="U72">
+        <v>0.0211</v>
+      </c>
+      <c r="V72">
+        <v>0.32</v>
+      </c>
+      <c r="W72">
+        <v>0.014348</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>6.7257418448516</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05618985926048297</v>
+      </c>
+      <c r="C73">
+        <v>18.31595735845537</v>
+      </c>
+      <c r="D73">
+        <v>49.46995735845537</v>
+      </c>
+      <c r="E73">
+        <v>-0.6660000000000039</v>
+      </c>
+      <c r="F73">
+        <v>32.23399999999999</v>
+      </c>
+      <c r="G73">
+        <v>1.08</v>
+      </c>
+      <c r="H73">
+        <v>12.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.95</v>
+      </c>
+      <c r="K73">
+        <v>3.44</v>
+      </c>
+      <c r="L73">
+        <v>4.51</v>
+      </c>
+      <c r="M73">
+        <v>0.6801373999999999</v>
+      </c>
+      <c r="N73">
+        <v>3.8298626</v>
+      </c>
+      <c r="O73">
+        <v>1.225556032</v>
+      </c>
+      <c r="P73">
+        <v>2.604306568</v>
+      </c>
+      <c r="Q73">
+        <v>6.044306568000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1586302733120102</v>
+      </c>
+      <c r="T73">
+        <v>2.275139480376852</v>
+      </c>
+      <c r="U73">
+        <v>0.0211</v>
+      </c>
+      <c r="V73">
+        <v>0.32</v>
+      </c>
+      <c r="W73">
+        <v>0.014348</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>6.63101308647341</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05606101926354515</v>
+      </c>
+      <c r="C74">
+        <v>17.9655518249177</v>
+      </c>
+      <c r="D74">
+        <v>49.5735518249177</v>
+      </c>
+      <c r="E74">
+        <v>-0.2120000000000033</v>
+      </c>
+      <c r="F74">
+        <v>32.688</v>
+      </c>
+      <c r="G74">
+        <v>1.08</v>
+      </c>
+      <c r="H74">
+        <v>12.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.95</v>
+      </c>
+      <c r="K74">
+        <v>3.44</v>
+      </c>
+      <c r="L74">
+        <v>4.51</v>
+      </c>
+      <c r="M74">
+        <v>0.6897167999999999</v>
+      </c>
+      <c r="N74">
+        <v>3.8202832</v>
+      </c>
+      <c r="O74">
+        <v>1.222490624</v>
+      </c>
+      <c r="P74">
+        <v>2.597792576</v>
+      </c>
+      <c r="Q74">
+        <v>6.037792576</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1633230687983755</v>
+      </c>
+      <c r="T74">
+        <v>2.346637134854829</v>
+      </c>
+      <c r="U74">
+        <v>0.0211</v>
+      </c>
+      <c r="V74">
+        <v>0.32</v>
+      </c>
+      <c r="W74">
+        <v>0.014348</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>6.538915682494613</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05593217926660733</v>
+      </c>
+      <c r="C75">
+        <v>17.61558107380485</v>
+      </c>
+      <c r="D75">
+        <v>49.67758107380485</v>
+      </c>
+      <c r="E75">
+        <v>0.2419999999999973</v>
+      </c>
+      <c r="F75">
+        <v>33.142</v>
+      </c>
+      <c r="G75">
+        <v>1.08</v>
+      </c>
+      <c r="H75">
+        <v>12.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.95</v>
+      </c>
+      <c r="K75">
+        <v>3.44</v>
+      </c>
+      <c r="L75">
+        <v>4.51</v>
+      </c>
+      <c r="M75">
+        <v>0.6992961999999999</v>
+      </c>
+      <c r="N75">
+        <v>3.8107038</v>
+      </c>
+      <c r="O75">
+        <v>1.219425216</v>
+      </c>
+      <c r="P75">
+        <v>2.591278584</v>
+      </c>
+      <c r="Q75">
+        <v>6.031278584000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1683634787652123</v>
+      </c>
+      <c r="T75">
+        <v>2.42343091188673</v>
+      </c>
+      <c r="U75">
+        <v>0.0211</v>
+      </c>
+      <c r="V75">
+        <v>0.32</v>
+      </c>
+      <c r="W75">
+        <v>0.014348</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>6.449341495063179</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05655813926966952</v>
+      </c>
+      <c r="C76">
+        <v>16.66021333074106</v>
+      </c>
+      <c r="D76">
+        <v>49.17621333074106</v>
+      </c>
+      <c r="E76">
+        <v>0.695999999999998</v>
+      </c>
+      <c r="F76">
+        <v>33.596</v>
+      </c>
+      <c r="G76">
+        <v>1.08</v>
+      </c>
+      <c r="H76">
+        <v>12.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.95</v>
+      </c>
+      <c r="K76">
+        <v>3.44</v>
+      </c>
+      <c r="L76">
+        <v>4.51</v>
+      </c>
+      <c r="M76">
+        <v>0.7592695999999999</v>
+      </c>
+      <c r="N76">
+        <v>3.7507304</v>
+      </c>
+      <c r="O76">
+        <v>1.200233728</v>
+      </c>
+      <c r="P76">
+        <v>2.550496672</v>
+      </c>
+      <c r="Q76">
+        <v>5.990496672000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.173791612575652</v>
+      </c>
+      <c r="T76">
+        <v>2.50613190253647</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.32</v>
+      </c>
+      <c r="W76">
+        <v>0.015368</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>5.939919101199364</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05643949927273169</v>
+      </c>
+      <c r="C77">
+        <v>16.30046023852329</v>
+      </c>
+      <c r="D77">
+        <v>49.27046023852329</v>
+      </c>
+      <c r="E77">
+        <v>1.149999999999999</v>
+      </c>
+      <c r="F77">
+        <v>34.05</v>
+      </c>
+      <c r="G77">
+        <v>1.08</v>
+      </c>
+      <c r="H77">
+        <v>12.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.95</v>
+      </c>
+      <c r="K77">
+        <v>3.44</v>
+      </c>
+      <c r="L77">
+        <v>4.51</v>
+      </c>
+      <c r="M77">
+        <v>0.7695299999999999</v>
+      </c>
+      <c r="N77">
+        <v>3.74047</v>
+      </c>
+      <c r="O77">
+        <v>1.1969504</v>
+      </c>
+      <c r="P77">
+        <v>2.5435196</v>
+      </c>
+      <c r="Q77">
+        <v>5.9835196</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1796539970909268</v>
+      </c>
+      <c r="T77">
+        <v>2.595448972438189</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.32</v>
+      </c>
+      <c r="W77">
+        <v>0.015368</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>5.860720179850039</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05632085927579388</v>
+      </c>
+      <c r="C78">
+        <v>15.94106909103893</v>
+      </c>
+      <c r="D78">
+        <v>49.36506909103893</v>
+      </c>
+      <c r="E78">
+        <v>1.603999999999999</v>
+      </c>
+      <c r="F78">
+        <v>34.504</v>
+      </c>
+      <c r="G78">
+        <v>1.08</v>
+      </c>
+      <c r="H78">
+        <v>12.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.95</v>
+      </c>
+      <c r="K78">
+        <v>3.44</v>
+      </c>
+      <c r="L78">
+        <v>4.51</v>
+      </c>
+      <c r="M78">
+        <v>0.7797903999999999</v>
+      </c>
+      <c r="N78">
+        <v>3.7302096</v>
+      </c>
+      <c r="O78">
+        <v>1.193667072</v>
+      </c>
+      <c r="P78">
+        <v>2.536542528</v>
+      </c>
+      <c r="Q78">
+        <v>5.976542528</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1860049136491412</v>
+      </c>
+      <c r="T78">
+        <v>2.692209131498385</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.32</v>
+      </c>
+      <c r="W78">
+        <v>0.015368</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>5.783605440641486</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05620221927885606</v>
+      </c>
+      <c r="C79">
+        <v>15.58204197731189</v>
+      </c>
+      <c r="D79">
+        <v>49.46004197731189</v>
+      </c>
+      <c r="E79">
+        <v>2.058</v>
+      </c>
+      <c r="F79">
+        <v>34.958</v>
+      </c>
+      <c r="G79">
+        <v>1.08</v>
+      </c>
+      <c r="H79">
+        <v>12.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.95</v>
+      </c>
+      <c r="K79">
+        <v>3.44</v>
+      </c>
+      <c r="L79">
+        <v>4.51</v>
+      </c>
+      <c r="M79">
+        <v>0.7900507999999999</v>
+      </c>
+      <c r="N79">
+        <v>3.7199492</v>
+      </c>
+      <c r="O79">
+        <v>1.190383744</v>
+      </c>
+      <c r="P79">
+        <v>2.529565456</v>
+      </c>
+      <c r="Q79">
+        <v>5.969565456</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1929080838211133</v>
+      </c>
+      <c r="T79">
+        <v>2.797383217433381</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.32</v>
+      </c>
+      <c r="W79">
+        <v>0.015368</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>5.708493681672115</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05608357928191824</v>
+      </c>
+      <c r="C80">
+        <v>15.22338100247322</v>
+      </c>
+      <c r="D80">
+        <v>49.55538100247322</v>
+      </c>
+      <c r="E80">
+        <v>2.512</v>
+      </c>
+      <c r="F80">
+        <v>35.412</v>
+      </c>
+      <c r="G80">
+        <v>1.08</v>
+      </c>
+      <c r="H80">
+        <v>12.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.95</v>
+      </c>
+      <c r="K80">
+        <v>3.44</v>
+      </c>
+      <c r="L80">
+        <v>4.51</v>
+      </c>
+      <c r="M80">
+        <v>0.8003111999999999</v>
+      </c>
+      <c r="N80">
+        <v>3.7096888</v>
+      </c>
+      <c r="O80">
+        <v>1.187100416</v>
+      </c>
+      <c r="P80">
+        <v>2.522588384</v>
+      </c>
+      <c r="Q80">
+        <v>5.962588384</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2004388149178102</v>
+      </c>
+      <c r="T80">
+        <v>2.912118583907921</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.32</v>
+      </c>
+      <c r="W80">
+        <v>0.015368</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>5.635307865240422</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05596493928498043</v>
+      </c>
+      <c r="C81">
+        <v>14.86508828791668</v>
+      </c>
+      <c r="D81">
+        <v>49.65108828791668</v>
+      </c>
+      <c r="E81">
+        <v>2.966000000000001</v>
+      </c>
+      <c r="F81">
+        <v>35.866</v>
+      </c>
+      <c r="G81">
+        <v>1.08</v>
+      </c>
+      <c r="H81">
+        <v>12.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.95</v>
+      </c>
+      <c r="K81">
+        <v>3.44</v>
+      </c>
+      <c r="L81">
+        <v>4.51</v>
+      </c>
+      <c r="M81">
+        <v>0.8105715999999999</v>
+      </c>
+      <c r="N81">
+        <v>3.6994284</v>
+      </c>
+      <c r="O81">
+        <v>1.183817088</v>
+      </c>
+      <c r="P81">
+        <v>2.515611312</v>
+      </c>
+      <c r="Q81">
+        <v>5.955611312</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2086867584999068</v>
+      </c>
+      <c r="T81">
+        <v>3.037781128141941</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.32</v>
+      </c>
+      <c r="W81">
+        <v>0.015368</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>5.563974854288011</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.0558462992880426</v>
+      </c>
+      <c r="C82">
+        <v>14.50716597145617</v>
+      </c>
+      <c r="D82">
+        <v>49.74716597145617</v>
+      </c>
+      <c r="E82">
+        <v>3.420000000000002</v>
+      </c>
+      <c r="F82">
+        <v>36.32</v>
+      </c>
+      <c r="G82">
+        <v>1.08</v>
+      </c>
+      <c r="H82">
+        <v>12.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.95</v>
+      </c>
+      <c r="K82">
+        <v>3.44</v>
+      </c>
+      <c r="L82">
+        <v>4.51</v>
+      </c>
+      <c r="M82">
+        <v>0.820832</v>
+      </c>
+      <c r="N82">
+        <v>3.689168</v>
+      </c>
+      <c r="O82">
+        <v>1.18053376</v>
+      </c>
+      <c r="P82">
+        <v>2.50863424</v>
+      </c>
+      <c r="Q82">
+        <v>5.948634240000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2177594964402131</v>
+      </c>
+      <c r="T82">
+        <v>3.176009926799364</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.32</v>
+      </c>
+      <c r="W82">
+        <v>0.015368</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>5.494425168609411</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05572765929110478</v>
+      </c>
+      <c r="C83">
+        <v>14.14961620748475</v>
+      </c>
+      <c r="D83">
+        <v>49.84361620748476</v>
+      </c>
+      <c r="E83">
+        <v>3.874000000000002</v>
+      </c>
+      <c r="F83">
+        <v>36.774</v>
+      </c>
+      <c r="G83">
+        <v>1.08</v>
+      </c>
+      <c r="H83">
+        <v>12.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.95</v>
+      </c>
+      <c r="K83">
+        <v>3.44</v>
+      </c>
+      <c r="L83">
+        <v>4.51</v>
+      </c>
+      <c r="M83">
+        <v>0.8310924</v>
+      </c>
+      <c r="N83">
+        <v>3.6789076</v>
+      </c>
+      <c r="O83">
+        <v>1.177250432</v>
+      </c>
+      <c r="P83">
+        <v>2.501657167999999</v>
+      </c>
+      <c r="Q83">
+        <v>5.941657168</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2277872594268674</v>
+      </c>
+      <c r="T83">
+        <v>3.328789125315462</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.32</v>
+      </c>
+      <c r="W83">
+        <v>0.015368</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>5.426592759120406</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05560901929416696</v>
+      </c>
+      <c r="C84">
+        <v>13.79244116713584</v>
+      </c>
+      <c r="D84">
+        <v>49.94044116713584</v>
+      </c>
+      <c r="E84">
+        <v>4.328000000000003</v>
+      </c>
+      <c r="F84">
+        <v>37.228</v>
+      </c>
+      <c r="G84">
+        <v>1.08</v>
+      </c>
+      <c r="H84">
+        <v>12.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.95</v>
+      </c>
+      <c r="K84">
+        <v>3.44</v>
+      </c>
+      <c r="L84">
+        <v>4.51</v>
+      </c>
+      <c r="M84">
+        <v>0.8413528</v>
+      </c>
+      <c r="N84">
+        <v>3.6686472</v>
+      </c>
+      <c r="O84">
+        <v>1.173967104</v>
+      </c>
+      <c r="P84">
+        <v>2.494680096</v>
+      </c>
+      <c r="Q84">
+        <v>5.934680096</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2389292183009277</v>
+      </c>
+      <c r="T84">
+        <v>3.49854379033335</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.32</v>
+      </c>
+      <c r="W84">
+        <v>0.015368</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>5.360414798643327</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.05549037929722915</v>
+      </c>
+      <c r="C85">
+        <v>13.435643038446</v>
+      </c>
+      <c r="D85">
+        <v>50.037643038446</v>
+      </c>
+      <c r="E85">
+        <v>4.782000000000004</v>
+      </c>
+      <c r="F85">
+        <v>37.682</v>
+      </c>
+      <c r="G85">
+        <v>1.08</v>
+      </c>
+      <c r="H85">
+        <v>12.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.95</v>
+      </c>
+      <c r="K85">
+        <v>3.44</v>
+      </c>
+      <c r="L85">
+        <v>4.51</v>
+      </c>
+      <c r="M85">
+        <v>0.8516132</v>
+      </c>
+      <c r="N85">
+        <v>3.6583868</v>
+      </c>
+      <c r="O85">
+        <v>1.170683776</v>
+      </c>
+      <c r="P85">
+        <v>2.487703024</v>
+      </c>
+      <c r="Q85">
+        <v>5.927703024</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2513819958660539</v>
+      </c>
+      <c r="T85">
+        <v>3.688269592412165</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.32</v>
+      </c>
+      <c r="W85">
+        <v>0.015368</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>5.2958314878163</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.05537173930029132</v>
+      </c>
+      <c r="C86">
+        <v>13.07922402651983</v>
+      </c>
+      <c r="D86">
+        <v>50.13522402651983</v>
+      </c>
+      <c r="E86">
+        <v>5.235999999999997</v>
+      </c>
+      <c r="F86">
+        <v>38.136</v>
+      </c>
+      <c r="G86">
+        <v>1.08</v>
+      </c>
+      <c r="H86">
+        <v>12.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.95</v>
+      </c>
+      <c r="K86">
+        <v>3.44</v>
+      </c>
+      <c r="L86">
+        <v>4.51</v>
+      </c>
+      <c r="M86">
+        <v>0.8618735999999998</v>
+      </c>
+      <c r="N86">
+        <v>3.6481264</v>
+      </c>
+      <c r="O86">
+        <v>1.167400448</v>
+      </c>
+      <c r="P86">
+        <v>2.480725952</v>
+      </c>
+      <c r="Q86">
+        <v>5.920725952</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2653913706268207</v>
+      </c>
+      <c r="T86">
+        <v>3.901711119750829</v>
+      </c>
+      <c r="U86">
+        <v>0.0226</v>
+      </c>
+      <c r="V86">
+        <v>0.32</v>
+      </c>
+      <c r="W86">
+        <v>0.015368</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>5.232785874866106</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05525309930335352</v>
+      </c>
+      <c r="C87">
+        <v>12.72318635369668</v>
+      </c>
+      <c r="D87">
+        <v>50.23318635369667</v>
+      </c>
+      <c r="E87">
+        <v>5.689999999999998</v>
+      </c>
+      <c r="F87">
+        <v>38.59</v>
+      </c>
+      <c r="G87">
+        <v>1.08</v>
+      </c>
+      <c r="H87">
+        <v>12.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.95</v>
+      </c>
+      <c r="K87">
+        <v>3.44</v>
+      </c>
+      <c r="L87">
+        <v>4.51</v>
+      </c>
+      <c r="M87">
+        <v>0.8721339999999999</v>
+      </c>
+      <c r="N87">
+        <v>3.637866</v>
+      </c>
+      <c r="O87">
+        <v>1.16411712</v>
+      </c>
+      <c r="P87">
+        <v>2.47374888</v>
+      </c>
+      <c r="Q87">
+        <v>5.91374888</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2812686620223567</v>
+      </c>
+      <c r="T87">
+        <v>4.143611517401319</v>
+      </c>
+      <c r="U87">
+        <v>0.0226</v>
+      </c>
+      <c r="V87">
+        <v>0.32</v>
+      </c>
+      <c r="W87">
+        <v>0.015368</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>5.171223688102976</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.05513445930641569</v>
+      </c>
+      <c r="C88">
+        <v>12.36753225971936</v>
+      </c>
+      <c r="D88">
+        <v>50.33153225971936</v>
+      </c>
+      <c r="E88">
+        <v>6.143999999999998</v>
+      </c>
+      <c r="F88">
+        <v>39.044</v>
+      </c>
+      <c r="G88">
+        <v>1.08</v>
+      </c>
+      <c r="H88">
+        <v>12.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.95</v>
+      </c>
+      <c r="K88">
+        <v>3.44</v>
+      </c>
+      <c r="L88">
+        <v>4.51</v>
+      </c>
+      <c r="M88">
+        <v>0.8823943999999999</v>
+      </c>
+      <c r="N88">
+        <v>3.6276056</v>
+      </c>
+      <c r="O88">
+        <v>1.160833792</v>
+      </c>
+      <c r="P88">
+        <v>2.466771808</v>
+      </c>
+      <c r="Q88">
+        <v>5.906771808</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2994141379029692</v>
+      </c>
+      <c r="T88">
+        <v>4.420069114716163</v>
+      </c>
+      <c r="U88">
+        <v>0.0226</v>
+      </c>
+      <c r="V88">
+        <v>0.32</v>
+      </c>
+      <c r="W88">
+        <v>0.015368</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>5.111093180101778</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05501581930947787</v>
+      </c>
+      <c r="C89">
+        <v>12.01226400190488</v>
+      </c>
+      <c r="D89">
+        <v>50.43026400190488</v>
+      </c>
+      <c r="E89">
+        <v>6.597999999999999</v>
+      </c>
+      <c r="F89">
+        <v>39.498</v>
+      </c>
+      <c r="G89">
+        <v>1.08</v>
+      </c>
+      <c r="H89">
+        <v>12.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.95</v>
+      </c>
+      <c r="K89">
+        <v>3.44</v>
+      </c>
+      <c r="L89">
+        <v>4.51</v>
+      </c>
+      <c r="M89">
+        <v>0.8926547999999999</v>
+      </c>
+      <c r="N89">
+        <v>3.6173452</v>
+      </c>
+      <c r="O89">
+        <v>1.157550464</v>
+      </c>
+      <c r="P89">
+        <v>2.459794736</v>
+      </c>
+      <c r="Q89">
+        <v>5.899794736</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3203512254575221</v>
+      </c>
+      <c r="T89">
+        <v>4.739058650079446</v>
+      </c>
+      <c r="U89">
+        <v>0.0226</v>
+      </c>
+      <c r="V89">
+        <v>0.32</v>
+      </c>
+      <c r="W89">
+        <v>0.015368</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>5.052344982629344</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.05489717931254005</v>
+      </c>
+      <c r="C90">
+        <v>11.65738385531712</v>
+      </c>
+      <c r="D90">
+        <v>50.52938385531712</v>
+      </c>
+      <c r="E90">
+        <v>7.052</v>
+      </c>
+      <c r="F90">
+        <v>39.952</v>
+      </c>
+      <c r="G90">
+        <v>1.08</v>
+      </c>
+      <c r="H90">
+        <v>12.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.95</v>
+      </c>
+      <c r="K90">
+        <v>3.44</v>
+      </c>
+      <c r="L90">
+        <v>4.51</v>
+      </c>
+      <c r="M90">
+        <v>0.9029151999999999</v>
+      </c>
+      <c r="N90">
+        <v>3.6070848</v>
+      </c>
+      <c r="O90">
+        <v>1.154267136</v>
+      </c>
+      <c r="P90">
+        <v>2.452817664</v>
+      </c>
+      <c r="Q90">
+        <v>5.892817664000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3447778276045005</v>
+      </c>
+      <c r="T90">
+        <v>5.111213108003276</v>
+      </c>
+      <c r="U90">
+        <v>0.0226</v>
+      </c>
+      <c r="V90">
+        <v>0.32</v>
+      </c>
+      <c r="W90">
+        <v>0.015368</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>4.994931971463101</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05477853931560224</v>
+      </c>
+      <c r="C91">
+        <v>11.30289411294157</v>
+      </c>
+      <c r="D91">
+        <v>50.62889411294157</v>
+      </c>
+      <c r="E91">
+        <v>7.506</v>
+      </c>
+      <c r="F91">
+        <v>40.406</v>
+      </c>
+      <c r="G91">
+        <v>1.08</v>
+      </c>
+      <c r="H91">
+        <v>12.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.95</v>
+      </c>
+      <c r="K91">
+        <v>3.44</v>
+      </c>
+      <c r="L91">
+        <v>4.51</v>
+      </c>
+      <c r="M91">
+        <v>0.9131755999999999</v>
+      </c>
+      <c r="N91">
+        <v>3.5968244</v>
+      </c>
+      <c r="O91">
+        <v>1.150983808</v>
+      </c>
+      <c r="P91">
+        <v>2.445840592</v>
+      </c>
+      <c r="Q91">
+        <v>5.885840592</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3736456301418386</v>
+      </c>
+      <c r="T91">
+        <v>5.551032012822348</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.32</v>
+      </c>
+      <c r="W91">
+        <v>0.015368</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>4.938809140323066</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.05465989931866443</v>
+      </c>
+      <c r="C92">
+        <v>10.94879708586216</v>
+      </c>
+      <c r="D92">
+        <v>50.72879708586216</v>
+      </c>
+      <c r="E92">
+        <v>7.960000000000001</v>
+      </c>
+      <c r="F92">
+        <v>40.86</v>
+      </c>
+      <c r="G92">
+        <v>1.08</v>
+      </c>
+      <c r="H92">
+        <v>12.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.95</v>
+      </c>
+      <c r="K92">
+        <v>3.44</v>
+      </c>
+      <c r="L92">
+        <v>4.51</v>
+      </c>
+      <c r="M92">
+        <v>0.9234359999999999</v>
+      </c>
+      <c r="N92">
+        <v>3.586564</v>
+      </c>
+      <c r="O92">
+        <v>1.14770048</v>
+      </c>
+      <c r="P92">
+        <v>2.43886352</v>
+      </c>
+      <c r="Q92">
+        <v>5.87886352</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4082869931866444</v>
+      </c>
+      <c r="T92">
+        <v>6.078814698605234</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.32</v>
+      </c>
+      <c r="W92">
+        <v>0.015368</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>4.883933483208366</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05454125932172661</v>
+      </c>
+      <c r="C93">
+        <v>10.59509510344022</v>
+      </c>
+      <c r="D93">
+        <v>50.82909510344022</v>
+      </c>
+      <c r="E93">
+        <v>8.414000000000001</v>
+      </c>
+      <c r="F93">
+        <v>41.314</v>
+      </c>
+      <c r="G93">
+        <v>1.08</v>
+      </c>
+      <c r="H93">
+        <v>12.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.95</v>
+      </c>
+      <c r="K93">
+        <v>3.44</v>
+      </c>
+      <c r="L93">
+        <v>4.51</v>
+      </c>
+      <c r="M93">
+        <v>0.9336964</v>
+      </c>
+      <c r="N93">
+        <v>3.5763036</v>
+      </c>
+      <c r="O93">
+        <v>1.144417152</v>
+      </c>
+      <c r="P93">
+        <v>2.431886448</v>
+      </c>
+      <c r="Q93">
+        <v>5.871886448</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4506264369080736</v>
+      </c>
+      <c r="T93">
+        <v>6.723882425673206</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.32</v>
+      </c>
+      <c r="W93">
+        <v>0.015368</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>4.83026388449179</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.0544226193247888</v>
+      </c>
+      <c r="C94">
+        <v>10.24179051349545</v>
+      </c>
+      <c r="D94">
+        <v>50.92979051349545</v>
+      </c>
+      <c r="E94">
+        <v>8.868000000000002</v>
+      </c>
+      <c r="F94">
+        <v>41.768</v>
+      </c>
+      <c r="G94">
+        <v>1.08</v>
+      </c>
+      <c r="H94">
+        <v>12.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.95</v>
+      </c>
+      <c r="K94">
+        <v>3.44</v>
+      </c>
+      <c r="L94">
+        <v>4.51</v>
+      </c>
+      <c r="M94">
+        <v>0.9439567999999999</v>
+      </c>
+      <c r="N94">
+        <v>3.5660432</v>
+      </c>
+      <c r="O94">
+        <v>1.141133824</v>
+      </c>
+      <c r="P94">
+        <v>2.424909376</v>
+      </c>
+      <c r="Q94">
+        <v>5.864909376</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5035507415598602</v>
+      </c>
+      <c r="T94">
+        <v>7.530217084508172</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.32</v>
+      </c>
+      <c r="W94">
+        <v>0.015368</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>4.777761016182096</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05430397932785097</v>
+      </c>
+      <c r="C95">
+        <v>9.888885682489175</v>
+      </c>
+      <c r="D95">
+        <v>51.03088568248918</v>
+      </c>
+      <c r="E95">
+        <v>9.322000000000003</v>
+      </c>
+      <c r="F95">
+        <v>42.222</v>
+      </c>
+      <c r="G95">
+        <v>1.08</v>
+      </c>
+      <c r="H95">
+        <v>12.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.95</v>
+      </c>
+      <c r="K95">
+        <v>3.44</v>
+      </c>
+      <c r="L95">
+        <v>4.51</v>
+      </c>
+      <c r="M95">
+        <v>0.9542172</v>
+      </c>
+      <c r="N95">
+        <v>3.5557828</v>
+      </c>
+      <c r="O95">
+        <v>1.137850496</v>
+      </c>
+      <c r="P95">
+        <v>2.417932304</v>
+      </c>
+      <c r="Q95">
+        <v>5.857932304</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5715962761121571</v>
+      </c>
+      <c r="T95">
+        <v>8.56693307443884</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.32</v>
+      </c>
+      <c r="W95">
+        <v>0.015368</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>4.726387241814547</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05418533933091316</v>
+      </c>
+      <c r="C96">
+        <v>9.536382995709673</v>
+      </c>
+      <c r="D96">
+        <v>51.13238299570968</v>
+      </c>
+      <c r="E96">
+        <v>9.776000000000003</v>
+      </c>
+      <c r="F96">
+        <v>42.676</v>
+      </c>
+      <c r="G96">
+        <v>1.08</v>
+      </c>
+      <c r="H96">
+        <v>12.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.95</v>
+      </c>
+      <c r="K96">
+        <v>3.44</v>
+      </c>
+      <c r="L96">
+        <v>4.51</v>
+      </c>
+      <c r="M96">
+        <v>0.9644775999999999</v>
+      </c>
+      <c r="N96">
+        <v>3.5455224</v>
+      </c>
+      <c r="O96">
+        <v>1.134567168</v>
+      </c>
+      <c r="P96">
+        <v>2.410955232</v>
+      </c>
+      <c r="Q96">
+        <v>5.850955232</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6623236555152199</v>
+      </c>
+      <c r="T96">
+        <v>9.949221061013068</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.32</v>
+      </c>
+      <c r="W96">
+        <v>0.015368</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>4.676106526476095</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05406669933397534</v>
+      </c>
+      <c r="C97">
+        <v>9.184284857459851</v>
+      </c>
+      <c r="D97">
+        <v>51.23428485745985</v>
+      </c>
+      <c r="E97">
+        <v>10.23</v>
+      </c>
+      <c r="F97">
+        <v>43.13</v>
+      </c>
+      <c r="G97">
+        <v>1.08</v>
+      </c>
+      <c r="H97">
+        <v>12.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.95</v>
+      </c>
+      <c r="K97">
+        <v>3.44</v>
+      </c>
+      <c r="L97">
+        <v>4.51</v>
+      </c>
+      <c r="M97">
+        <v>0.974738</v>
+      </c>
+      <c r="N97">
+        <v>3.535262</v>
+      </c>
+      <c r="O97">
+        <v>1.13128384</v>
+      </c>
+      <c r="P97">
+        <v>2.40397816</v>
+      </c>
+      <c r="Q97">
+        <v>5.843978160000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7893419866795078</v>
+      </c>
+      <c r="T97">
+        <v>11.88442424221699</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.32</v>
+      </c>
+      <c r="W97">
+        <v>0.015368</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>4.626884352513188</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05394805933703752</v>
+      </c>
+      <c r="C98">
+        <v>8.832593691247027</v>
+      </c>
+      <c r="D98">
+        <v>51.33659369124702</v>
+      </c>
+      <c r="E98">
+        <v>10.684</v>
+      </c>
+      <c r="F98">
+        <v>43.584</v>
+      </c>
+      <c r="G98">
+        <v>1.08</v>
+      </c>
+      <c r="H98">
+        <v>12.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.95</v>
+      </c>
+      <c r="K98">
+        <v>3.44</v>
+      </c>
+      <c r="L98">
+        <v>4.51</v>
+      </c>
+      <c r="M98">
+        <v>0.9849983999999998</v>
+      </c>
+      <c r="N98">
+        <v>3.5250016</v>
+      </c>
+      <c r="O98">
+        <v>1.128000512</v>
+      </c>
+      <c r="P98">
+        <v>2.397001088</v>
+      </c>
+      <c r="Q98">
+        <v>5.837001088</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9798694834259372</v>
+      </c>
+      <c r="T98">
+        <v>14.78722901402283</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.32</v>
+      </c>
+      <c r="W98">
+        <v>0.015368</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>4.578687640507843</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05382941934009971</v>
+      </c>
+      <c r="C99">
+        <v>8.481311939975093</v>
+      </c>
+      <c r="D99">
+        <v>51.43931193997509</v>
+      </c>
+      <c r="E99">
+        <v>11.138</v>
+      </c>
+      <c r="F99">
+        <v>44.038</v>
+      </c>
+      <c r="G99">
+        <v>1.08</v>
+      </c>
+      <c r="H99">
+        <v>12.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.95</v>
+      </c>
+      <c r="K99">
+        <v>3.44</v>
+      </c>
+      <c r="L99">
+        <v>4.51</v>
+      </c>
+      <c r="M99">
+        <v>0.9952587999999999</v>
+      </c>
+      <c r="N99">
+        <v>3.5147412</v>
+      </c>
+      <c r="O99">
+        <v>1.124717184</v>
+      </c>
+      <c r="P99">
+        <v>2.390024016</v>
+      </c>
+      <c r="Q99">
+        <v>5.830024016</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.297415311336656</v>
+      </c>
+      <c r="T99">
+        <v>19.62523696703261</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.32</v>
+      </c>
+      <c r="W99">
+        <v>0.015368</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>4.531484675141783</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1149122864538598</v>
+      </c>
+      <c r="C100">
+        <v>-18.07455772813866</v>
+      </c>
+      <c r="D100">
+        <v>25.33744227186133</v>
+      </c>
+      <c r="E100">
+        <v>11.592</v>
+      </c>
+      <c r="F100">
+        <v>44.492</v>
+      </c>
+      <c r="G100">
+        <v>1.08</v>
+      </c>
+      <c r="H100">
+        <v>12.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.95</v>
+      </c>
+      <c r="K100">
+        <v>3.44</v>
+      </c>
+      <c r="L100">
+        <v>4.51</v>
+      </c>
+      <c r="M100">
+        <v>4.849628</v>
+      </c>
+      <c r="N100">
+        <v>-0.3396280000000003</v>
+      </c>
+      <c r="O100">
+        <v>-0.1086809600000001</v>
+      </c>
+      <c r="P100">
+        <v>-0.2309470400000002</v>
+      </c>
+      <c r="Q100">
+        <v>3.20905296</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.994041635468319</v>
+      </c>
+      <c r="T100">
+        <v>30.23877177112566</v>
+      </c>
+      <c r="U100">
+        <v>0.109</v>
+      </c>
+      <c r="V100">
+        <v>0.2975898357564745</v>
+      </c>
+      <c r="W100">
+        <v>0.07656270790254427</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.9299682367389828</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1159092864538598</v>
+      </c>
+      <c r="C101">
+        <v>-18.73668683908627</v>
+      </c>
+      <c r="D101">
+        <v>25.12931316091372</v>
+      </c>
+      <c r="E101">
+        <v>12.046</v>
+      </c>
+      <c r="F101">
+        <v>44.946</v>
+      </c>
+      <c r="G101">
+        <v>1.08</v>
+      </c>
+      <c r="H101">
+        <v>12.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.95</v>
+      </c>
+      <c r="K101">
+        <v>3.44</v>
+      </c>
+      <c r="L101">
+        <v>4.51</v>
+      </c>
+      <c r="M101">
+        <v>4.899114</v>
+      </c>
+      <c r="N101">
+        <v>-0.3891140000000002</v>
+      </c>
+      <c r="O101">
+        <v>-0.1245164800000001</v>
+      </c>
+      <c r="P101">
+        <v>-0.2645975200000001</v>
+      </c>
+      <c r="Q101">
+        <v>3.17540248</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.978783270936638</v>
+      </c>
+      <c r="T101">
+        <v>60.47754354225133</v>
+      </c>
+      <c r="U101">
+        <v>0.109</v>
+      </c>
+      <c r="V101">
+        <v>0.2945838778195404</v>
+      </c>
+      <c r="W101">
+        <v>0.07689035731767009</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.9205746181860638</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
